--- a/sriramModel-nelson-melancholic-patientID_17-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_17-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.130356367786448</v>
+        <v>1.175952883906046</v>
       </c>
       <c r="C2">
-        <v>1.199004803368088</v>
+        <v>1.208654724238711</v>
       </c>
       <c r="D2">
-        <v>1.24296698260408</v>
+        <v>1.217406859961882</v>
       </c>
       <c r="E2">
-        <v>1.176763104145177</v>
+        <v>1.242109351511506</v>
       </c>
       <c r="F2">
-        <v>1.241339340045732</v>
+        <v>1.157155115448912</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.259476536502292</v>
+        <v>1.35011233482095</v>
       </c>
       <c r="C3">
-        <v>1.3967132357585</v>
+        <v>1.415217123916702</v>
       </c>
       <c r="D3">
-        <v>1.483935884575259</v>
+        <v>1.433598913881158</v>
       </c>
       <c r="E3">
-        <v>1.353155865878475</v>
+        <v>1.482488419148059</v>
       </c>
       <c r="F3">
-        <v>1.481592544405406</v>
+        <v>1.31312994238484</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.387464589511689</v>
+        <v>1.522663198754042</v>
       </c>
       <c r="C4">
-        <v>1.593192034515886</v>
+        <v>1.619803762887437</v>
       </c>
       <c r="D4">
-        <v>1.723094997098245</v>
+        <v>1.648620614540492</v>
       </c>
       <c r="E4">
-        <v>1.529236873951106</v>
+        <v>1.721327682227508</v>
       </c>
       <c r="F4">
-        <v>1.720822722653642</v>
+        <v>1.467961847721038</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.514410290378092</v>
+        <v>1.693761552900467</v>
       </c>
       <c r="C5">
-        <v>1.788501616481129</v>
+        <v>1.82252065656644</v>
       </c>
       <c r="D5">
-        <v>1.960605824103073</v>
+        <v>1.862512577065389</v>
       </c>
       <c r="E5">
-        <v>1.705051089986475</v>
+        <v>1.9587845716674</v>
       </c>
       <c r="F5">
-        <v>1.959086997805514</v>
+        <v>1.621685373075377</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.640391820725041</v>
+        <v>1.863540385013187</v>
       </c>
       <c r="C6">
-        <v>1.982697230907568</v>
+        <v>2.02346468933197</v>
       </c>
       <c r="D6">
-        <v>2.196607898241219</v>
+        <v>2.07531218125876</v>
       </c>
       <c r="E6">
-        <v>1.880633728714788</v>
+        <v>2.194990502881603</v>
       </c>
       <c r="F6">
-        <v>2.196437591399503</v>
+        <v>1.774332657115529</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.765477766240575</v>
+        <v>2.032114154342989</v>
       </c>
       <c r="C7">
-        <v>2.175829448340465</v>
+        <v>2.222724894154386</v>
       </c>
       <c r="D7">
-        <v>2.431222900753314</v>
+        <v>2.287053643105022</v>
       </c>
       <c r="E7">
-        <v>2.056013063203042</v>
+        <v>2.430056543960544</v>
       </c>
       <c r="F7">
-        <v>2.432922305957594</v>
+        <v>1.925933656639832</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.889728501825017</v>
+        <v>2.199581979695635</v>
       </c>
       <c r="C8">
-        <v>2.367944726138943</v>
+        <v>2.420383139153105</v>
       </c>
       <c r="D8">
-        <v>2.664557477260505</v>
+        <v>2.497768140974977</v>
       </c>
       <c r="E8">
-        <v>2.231212039405322</v>
+        <v>2.664077348367403</v>
       </c>
       <c r="F8">
-        <v>2.668585013505754</v>
+        <v>2.076516209037135</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.013197529932949</v>
+        <v>2.366030351167641</v>
       </c>
       <c r="C9">
-        <v>2.559085843821105</v>
+        <v>2.616514914856152</v>
       </c>
       <c r="D9">
-        <v>2.896705759486943</v>
+        <v>2.70748392048499</v>
       </c>
       <c r="E9">
-        <v>2.406249506218281</v>
+        <v>2.897134079550244</v>
       </c>
       <c r="F9">
-        <v>2.903466078329714</v>
+        <v>2.22610616486344</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.135932617145029</v>
+        <v>2.531535171121344</v>
       </c>
       <c r="C10">
-        <v>2.749292277966643</v>
+        <v>2.811190031892808</v>
       </c>
       <c r="D10">
-        <v>3.127751276841033</v>
+        <v>2.91622636867036</v>
       </c>
       <c r="E10">
-        <v>2.581141110677717</v>
+        <v>3.129296648809738</v>
       </c>
       <c r="F10">
-        <v>3.137602703588718</v>
+        <v>2.374727494038706</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.257976440694529</v>
+        <v>2.69616329381939</v>
       </c>
       <c r="C11">
-        <v>2.938600536547494</v>
+        <v>3.004473191149078</v>
       </c>
       <c r="D11">
-        <v>3.357768468521839</v>
+        <v>3.124018050263352</v>
       </c>
       <c r="E11">
-        <v>2.75589992958033</v>
+        <v>3.360625679737885</v>
       </c>
       <c r="F11">
-        <v>3.371029238589759</v>
+        <v>2.522402393137767</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.379367269308084</v>
+        <v>2.859973926530348</v>
       </c>
       <c r="C12">
-        <v>3.127044447206769</v>
+        <v>3.196424469965056</v>
       </c>
       <c r="D12">
-        <v>3.586823909610826</v>
+        <v>3.330878702287611</v>
       </c>
       <c r="E12">
-        <v>2.930537007614127</v>
+        <v>3.591174082714387</v>
       </c>
       <c r="F12">
-        <v>3.60377744220717</v>
+        <v>2.669151365520056</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.500139577348667</v>
+        <v>3.02301977107635</v>
       </c>
       <c r="C13">
-        <v>3.314655412070911</v>
+        <v>3.387099734343859</v>
       </c>
       <c r="D13">
-        <v>3.814977521542004</v>
+        <v>3.536825197407169</v>
       </c>
       <c r="E13">
-        <v>3.105061758242492</v>
+        <v>3.820988030679439</v>
       </c>
       <c r="F13">
-        <v>3.83587672173375</v>
+        <v>2.814993276976357</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.62032451403846</v>
+        <v>3.185347839234572</v>
       </c>
       <c r="C14">
-        <v>3.501462634043905</v>
+        <v>3.576551039317405</v>
       </c>
       <c r="D14">
-        <v>4.042283408800958</v>
+        <v>3.741871478523233</v>
       </c>
       <c r="E14">
-        <v>3.279482196260408</v>
+        <v>4.05010782099644</v>
       </c>
       <c r="F14">
-        <v>4.067354344801122</v>
+        <v>2.959945397922434</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.739950275560057</v>
+        <v>3.347000138406625</v>
       </c>
       <c r="C15">
-        <v>3.687493325349957</v>
+        <v>3.764826965985447</v>
       </c>
       <c r="D15">
-        <v>4.268790520131287</v>
+        <v>3.946028458683817</v>
       </c>
       <c r="E15">
-        <v>3.453805156699963</v>
+        <v>4.278568680205385</v>
       </c>
       <c r="F15">
-        <v>4.298235636587203</v>
+        <v>3.104023435924514</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.859042402641619</v>
+        <v>3.508014283286887</v>
       </c>
       <c r="C16">
-        <v>3.872772869024375</v>
+        <v>3.951972926335036</v>
       </c>
       <c r="D16">
-        <v>4.494543271255202</v>
+        <v>4.149303880119356</v>
       </c>
       <c r="E16">
-        <v>3.628036475097666</v>
+        <v>4.50640138763267</v>
       </c>
       <c r="F16">
-        <v>4.528544118320561</v>
+        <v>3.247241557131551</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.977624043269592</v>
+        <v>3.668424047441724</v>
       </c>
       <c r="C17">
-        <v>4.057324954942006</v>
+        <v>4.138031416934525</v>
       </c>
       <c r="D17">
-        <v>4.719582102193272</v>
+        <v>4.351702127387513</v>
       </c>
       <c r="E17">
-        <v>3.802181161783968</v>
+        <v>4.733632818182525</v>
       </c>
       <c r="F17">
-        <v>4.758301645755282</v>
+        <v>3.389612394413995</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.095716188713269</v>
+        <v>3.828259824925379</v>
       </c>
       <c r="C18">
-        <v>4.241171720003948</v>
+        <v>4.323042250526348</v>
       </c>
       <c r="D18">
-        <v>4.943943859629234</v>
+        <v>4.553223991425591</v>
       </c>
       <c r="E18">
-        <v>3.976243488507377</v>
+        <v>4.960286229577249</v>
       </c>
       <c r="F18">
-        <v>4.987528529153828</v>
+        <v>3.531147041022086</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.213337865952606</v>
+        <v>3.987548959211134</v>
       </c>
       <c r="C19">
-        <v>4.424333864099075</v>
+        <v>4.507042691892329</v>
       </c>
       <c r="D19">
-        <v>5.167662396589527</v>
+        <v>4.753866381689344</v>
       </c>
       <c r="E19">
-        <v>4.15022707781196</v>
+        <v>5.186381568261117</v>
       </c>
       <c r="F19">
-        <v>5.216243641311044</v>
+        <v>3.671855029358394</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.330506282343068</v>
+        <v>4.146315892972124</v>
       </c>
       <c r="C20">
-        <v>4.606830754939664</v>
+        <v>4.690067745643888</v>
       </c>
       <c r="D20">
-        <v>5.390768601342601</v>
+        <v>4.953621978629172</v>
       </c>
       <c r="E20">
-        <v>4.324135037813964</v>
+        <v>5.411935705267769</v>
       </c>
       <c r="F20">
-        <v>5.444464501726262</v>
+        <v>3.811744294137088</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.447236933046677</v>
+        <v>4.304582436627989</v>
       </c>
       <c r="C21">
-        <v>4.788680515373934</v>
+        <v>4.872150295686492</v>
       </c>
       <c r="D21">
-        <v>5.61329086294064</v>
+        <v>5.152478823048637</v>
       </c>
       <c r="E21">
-        <v>4.49796984758249</v>
+        <v>5.636962614713293</v>
       </c>
       <c r="F21">
-        <v>5.672207360523946</v>
+        <v>3.950821119609563</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.563543682405646</v>
+        <v>4.462368045478478</v>
       </c>
       <c r="C22">
-        <v>4.969900095261507</v>
+        <v>5.053321227112873</v>
       </c>
       <c r="D22">
-        <v>5.835255232293555</v>
+        <v>5.350419825349588</v>
       </c>
       <c r="E22">
-        <v>4.67173356200231</v>
+        <v>5.861473497011624</v>
       </c>
       <c r="F22">
-        <v>5.899487258700201</v>
+        <v>4.089090070457441</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.679438822112077</v>
+        <v>4.619689945550559</v>
       </c>
       <c r="C23">
-        <v>5.150505334392252</v>
+        <v>5.233609540607373</v>
       </c>
       <c r="D23">
-        <v>6.056685517912014</v>
+        <v>5.547422191104443</v>
       </c>
       <c r="E23">
-        <v>4.845427704990847</v>
+        <v>6.085476855879485</v>
       </c>
       <c r="F23">
-        <v>6.126318084699199</v>
+        <v>4.226553900038072</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.79493309956329</v>
+        <v>4.776563373474823</v>
       </c>
       <c r="C24">
-        <v>5.3305110128576</v>
+        <v>5.413042450377183</v>
       </c>
       <c r="D24">
-        <v>6.277603585915431</v>
+        <v>5.743456753042364</v>
       </c>
       <c r="E24">
-        <v>5.019053363588822</v>
+        <v>6.308978503097155</v>
       </c>
       <c r="F24">
-        <v>6.352712605111634</v>
+        <v>4.363213438700432</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.910035714387959</v>
+        <v>4.933001511300596</v>
       </c>
       <c r="C25">
-        <v>5.509930893318145</v>
+        <v>5.591645462978692</v>
       </c>
       <c r="D25">
-        <v>6.498029440132421</v>
+        <v>5.938487197104504</v>
       </c>
       <c r="E25">
-        <v>5.192611187486039</v>
+        <v>6.531981515299763</v>
       </c>
       <c r="F25">
-        <v>6.578682494222853</v>
+        <v>4.499067456917339</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.024754281104144</v>
+        <v>5.089015585531517</v>
       </c>
       <c r="C26">
-        <v>5.68877774712949</v>
+        <v>5.769442464251461</v>
       </c>
       <c r="D26">
-        <v>6.717981338716775</v>
+        <v>6.132469170961526</v>
       </c>
       <c r="E26">
-        <v>5.366101380412894</v>
+        <v>6.754486158642262</v>
       </c>
       <c r="F26">
-        <v>6.80423834971892</v>
+        <v>4.634112500388336</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.13909475733767</v>
+        <v>5.244614815303925</v>
       </c>
       <c r="C27">
-        <v>5.867063370890311</v>
+        <v>5.946455774973306</v>
       </c>
       <c r="D27">
-        <v>6.937475904697217</v>
+        <v>6.325349262731312</v>
       </c>
       <c r="E27">
-        <v>5.53952369120092</v>
+        <v>6.976489726747124</v>
       </c>
       <c r="F27">
-        <v>7.029389696108609</v>
+        <v>4.768342693133734</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.253061333210653</v>
+        <v>5.399806481334078</v>
       </c>
       <c r="C28">
-        <v>6.044798589352356</v>
+        <v>6.122706185246873</v>
       </c>
       <c r="D28">
-        <v>7.156528156332058</v>
+        <v>6.51706383796401</v>
       </c>
       <c r="E28">
-        <v>5.712877403548081</v>
+        <v>7.197986354357322</v>
       </c>
       <c r="F28">
-        <v>7.254144973519614</v>
+        <v>4.901749503808662</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.366656274867924</v>
+        <v>5.554595913599275</v>
       </c>
       <c r="C29">
-        <v>6.221993242038546</v>
+        <v>6.298212969682189</v>
       </c>
       <c r="D29">
-        <v>7.375151496664785</v>
+        <v>6.707537723891396</v>
       </c>
       <c r="E29">
-        <v>5.886161263470497</v>
+        <v>7.418966754235718</v>
       </c>
       <c r="F29">
-        <v>7.478511505662127</v>
+        <v>5.034321469546981</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.479879713840227</v>
+        <v>5.708986401511722</v>
       </c>
       <c r="C30">
-        <v>6.398656158368222</v>
+        <v>6.472993889031454</v>
       </c>
       <c r="D30">
-        <v>7.593357773447173</v>
+        <v>6.89668273185946</v>
       </c>
       <c r="E30">
-        <v>6.05937347804967</v>
+        <v>7.639417871966418</v>
       </c>
       <c r="F30">
-        <v>7.70249545640814</v>
+        <v>5.166043902490381</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.592729372477271</v>
+        <v>5.862979071219622</v>
       </c>
       <c r="C31">
-        <v>6.574795105611949</v>
+        <v>6.647065158184487</v>
       </c>
       <c r="D31">
-        <v>7.811157187298315</v>
+        <v>7.084396012281811</v>
       </c>
       <c r="E31">
-        <v>6.232511621040588</v>
+        <v>7.859322495454279</v>
       </c>
       <c r="F31">
-        <v>7.926101760550819</v>
+        <v>5.296898461563242</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.705200212997023</v>
+        <v>6.016572730140011</v>
       </c>
       <c r="C32">
-        <v>6.750416718137346</v>
+        <v>6.820441401377257</v>
       </c>
       <c r="D32">
-        <v>8.02855822576724</v>
+        <v>7.270558241939348</v>
       </c>
       <c r="E32">
-        <v>6.40557255927437</v>
+        <v>8.078658703366125</v>
       </c>
       <c r="F32">
-        <v>8.149334044093941</v>
+        <v>5.426862651181354</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.817283995420525</v>
+        <v>6.169763635918859</v>
       </c>
       <c r="C33">
-        <v>6.92552639878741</v>
+        <v>6.993135570748987</v>
       </c>
       <c r="D33">
-        <v>8.245567602051992</v>
+        <v>7.455031649463383</v>
       </c>
       <c r="E33">
-        <v>6.578552396177726</v>
+        <v>8.297399251457865</v>
       </c>
       <c r="F33">
-        <v>8.372194492162082</v>
+        <v>5.555909380433182</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.928968724479873</v>
+        <v>6.322545249218473</v>
       </c>
       <c r="C34">
-        <v>7.100128181723171</v>
+        <v>7.165158825127113</v>
       </c>
       <c r="D34">
-        <v>8.462190041050105</v>
+        <v>7.637657910730367</v>
       </c>
       <c r="E34">
-        <v>6.75144629624623</v>
+        <v>8.515510813194451</v>
       </c>
       <c r="F34">
-        <v>8.594683699061111</v>
+        <v>5.684006436439198</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.040237962038008</v>
+        <v>6.474907894461897</v>
       </c>
       <c r="C35">
-        <v>7.274224566178244</v>
+        <v>7.3365203695412</v>
       </c>
       <c r="D35">
-        <v>8.678428028018052</v>
+        <v>7.818255925145826</v>
       </c>
       <c r="E35">
-        <v>6.9242484006173</v>
+        <v>8.73295305947647</v>
       </c>
       <c r="F35">
-        <v>8.81680046496556</v>
+        <v>5.811115568045751</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.15106997648739</v>
+        <v>6.626838324523384</v>
       </c>
       <c r="C36">
-        <v>7.447816276628273</v>
+        <v>7.507227231658071</v>
       </c>
       <c r="D36">
-        <v>8.894281618084969</v>
+        <v>7.996619551539057</v>
       </c>
       <c r="E36">
-        <v>7.096951566404005</v>
+        <v>8.949677609790669</v>
       </c>
       <c r="F36">
-        <v>9.038541558194618</v>
+        <v>5.937191651902128</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.261436694852375</v>
+        <v>6.778319193476205</v>
       </c>
       <c r="C37">
-        <v>7.620901963753154</v>
+        <v>7.677283962086839</v>
       </c>
       <c r="D37">
-        <v>9.109747915119222</v>
+        <v>8.172515381030584</v>
       </c>
       <c r="E37">
-        <v>7.269547159559743</v>
+        <v>9.16562665400874</v>
       </c>
       <c r="F37">
-        <v>9.259901382907668</v>
+        <v>6.062181808752926</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.371302416691007</v>
+        <v>6.929328378263106</v>
       </c>
       <c r="C38">
-        <v>7.793477817498818</v>
+        <v>7.846692249356986</v>
       </c>
       <c r="D38">
-        <v>9.324820527836037</v>
+        <v>8.345680661414823</v>
       </c>
       <c r="E38">
-        <v>7.442024771222704</v>
+        <v>9.380731402262136</v>
       </c>
       <c r="F38">
-        <v>9.480871566995425</v>
+        <v>6.186024207744863</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.480622241725648</v>
+        <v>7.079838122315556</v>
       </c>
       <c r="C39">
-        <v>7.965537051258087</v>
+        <v>8.01545041143747</v>
       </c>
       <c r="D39">
-        <v>9.539489198547342</v>
+        <v>8.51582153059304</v>
       </c>
       <c r="E39">
-        <v>7.614371844915199</v>
+        <v>9.59491018618882</v>
       </c>
       <c r="F39">
-        <v>9.701440437365912</v>
+        <v>6.308646672383111</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.589340155923119</v>
+        <v>7.229813986101856</v>
       </c>
       <c r="C40">
-        <v>8.137069284903951</v>
+        <v>8.183552714540204</v>
       </c>
       <c r="D40">
-        <v>9.753738491432328</v>
+        <v>8.682611759492412</v>
       </c>
       <c r="E40">
-        <v>7.78657319996411</v>
+        <v>9.808066377918564</v>
       </c>
       <c r="F40">
-        <v>9.921592357845226</v>
+        <v>6.429965083604539</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.697386714269828</v>
+        <v>7.379213511949829</v>
       </c>
       <c r="C41">
-        <v>8.308059658020618</v>
+        <v>8.350988548085331</v>
       </c>
       <c r="D41">
-        <v>9.967546839097157</v>
+        <v>8.845692192517589</v>
       </c>
       <c r="E41">
-        <v>7.958610414471937</v>
+        <v>10.02008534969338</v>
       </c>
       <c r="F41">
-        <v>10.14130695865404</v>
+        <v>6.549881554668127</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.804676254085655</v>
+        <v>7.527984647242293</v>
       </c>
       <c r="C42">
-        <v>8.478487743457958</v>
+        <v>8.517741227026288</v>
       </c>
       <c r="D42">
-        <v>10.18088509786323</v>
+        <v>9.004671309591901</v>
       </c>
       <c r="E42">
-        <v>8.130461057075742</v>
+        <v>10.23083144419007</v>
       </c>
       <c r="F42">
-        <v>10.36055783932837</v>
+        <v>6.668282284109421</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.911103572649478</v>
+        <v>7.676063378844226</v>
       </c>
       <c r="C43">
-        <v>8.648326072617609</v>
+        <v>8.683786530566945</v>
       </c>
       <c r="D43">
-        <v>10.39371465935364</v>
+        <v>9.159127361527018</v>
       </c>
       <c r="E43">
-        <v>8.302097706776568</v>
+        <v>10.44014421899735</v>
       </c>
       <c r="F43">
-        <v>10.579311164721</v>
+        <v>6.78503508204552</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.016540012425993</v>
+        <v>7.823371120663662</v>
       </c>
       <c r="C44">
-        <v>8.817538051431256</v>
+        <v>8.84909065714559</v>
       </c>
       <c r="D44">
-        <v>10.60598494267891</v>
+        <v>9.308611780193511</v>
       </c>
       <c r="E44">
-        <v>8.473486505757842</v>
+        <v>10.6478338969111</v>
       </c>
       <c r="F44">
-        <v>10.79752378565729</v>
+        <v>6.8999865653735</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.120828998791059</v>
+        <v>7.969811307153109</v>
       </c>
       <c r="C45">
-        <v>8.986075445058081</v>
+        <v>9.013607385678375</v>
       </c>
       <c r="D45">
-        <v>10.81763011818926</v>
+        <v>9.452654738939492</v>
       </c>
       <c r="E45">
-        <v>8.644585401069609</v>
+        <v>10.85367596446199</v>
       </c>
       <c r="F45">
-        <v>11.01514066594897</v>
+        <v>7.012958985839453</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.22378062471155</v>
+        <v>8.115264909761979</v>
       </c>
       <c r="C46">
-        <v>9.15387489102193</v>
+        <v>9.177274577587916</v>
       </c>
       <c r="D46">
-        <v>11.02856484311369</v>
+        <v>9.590773147807669</v>
       </c>
       <c r="E46">
-        <v>8.815341793424389</v>
+        <v>11.05740490660002</v>
       </c>
       <c r="F46">
-        <v>11.23209137654178</v>
+        <v>7.123746718879183</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.325166076473336</v>
+        <v>8.259584683142112</v>
       </c>
       <c r="C47">
-        <v>9.320853090353758</v>
+        <v>9.340009294055179</v>
       </c>
       <c r="D47">
-        <v>11.2386789347672</v>
+        <v>9.722480925676383</v>
       </c>
       <c r="E47">
-        <v>8.985689251508845</v>
+        <v>11.25870697151055</v>
       </c>
       <c r="F47">
-        <v>11.44828539103138</v>
+        <v>7.232112458949497</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6.42471160295216</v>
+        <v>8.402587860915194</v>
       </c>
       <c r="C48">
-        <v>9.486900288378322</v>
+        <v>9.501701056681828</v>
       </c>
       <c r="D48">
-        <v>11.44782950263356</v>
+        <v>9.847301538295035</v>
       </c>
       <c r="E48">
-        <v>9.155542978006414</v>
+        <v>11.45721189145946</v>
       </c>
       <c r="F48">
-        <v>11.66360564767979</v>
+        <v>7.337783263751856</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.522092358722464</v>
+        <v>8.544047008549942</v>
       </c>
       <c r="C49">
-        <v>9.65187159677059</v>
+        <v>9.662202680730706</v>
       </c>
       <c r="D49">
-        <v>11.65583167648818</v>
+        <v>9.964782400146341</v>
       </c>
       <c r="E49">
-        <v>9.324793531286378</v>
+        <v>11.65248362646498</v>
       </c>
       <c r="F49">
-        <v>11.87789970686724</v>
+        <v>7.440446637332328</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6.616926864273373</v>
+        <v>8.683678007895551</v>
       </c>
       <c r="C50">
-        <v>9.815574421908028</v>
+        <v>9.821318158470101</v>
       </c>
       <c r="D50">
-        <v>11.86244616138857</v>
+        <v>10.07451078390387</v>
       </c>
       <c r="E50">
-        <v>9.493297998561644</v>
+        <v>11.8440103798359</v>
       </c>
       <c r="F50">
-        <v>12.09096674599575</v>
+        <v>7.539747020396464</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6.708773031478948</v>
+        <v>8.821125892621934</v>
       </c>
       <c r="C51">
-        <v>9.977752131527847</v>
+        <v>9.978785018624832</v>
       </c>
       <c r="D51">
-        <v>12.06736281218111</v>
+        <v>10.17613005192505</v>
       </c>
       <c r="E51">
-        <v>9.660867671358474</v>
+        <v>12.03119438928601</v>
       </c>
       <c r="F51">
-        <v>12.30254027733679</v>
+        <v>7.635283218706601</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6.79712688235467</v>
+        <v>8.95594795951712</v>
       </c>
       <c r="C52">
-        <v>10.13806180670995</v>
+        <v>10.13425206475239</v>
       </c>
       <c r="D52">
-        <v>12.27017963193616</v>
+        <v>10.2693551277705</v>
       </c>
       <c r="E52">
-        <v>9.827249631047486</v>
+        <v>12.21334239356084</v>
       </c>
       <c r="F52">
-        <v>12.51226345948587</v>
+        <v>7.726607540149041</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6.881425315277728</v>
+        <v>9.087594571888983</v>
       </c>
       <c r="C53">
-        <v>10.29604409871103</v>
+        <v>10.28724908865202</v>
       </c>
       <c r="D53">
-        <v>12.47037624068212</v>
+        <v>10.35398603835695</v>
       </c>
       <c r="E53">
-        <v>9.992101764417578</v>
+        <v>12.3896581208753</v>
       </c>
       <c r="F53">
-        <v>12.71965407324074</v>
+        <v>7.813227489446575</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.961055435901697</v>
+        <v>9.215389963829953</v>
       </c>
       <c r="C54">
-        <v>10.45108476156134</v>
+        <v>10.43714777770153</v>
       </c>
       <c r="D54">
-        <v>12.66728128109044</v>
+        <v>10.42991817576043</v>
       </c>
       <c r="E54">
-        <v>10.15495717538651</v>
+        <v>12.55923899109499</v>
       </c>
       <c r="F54">
-        <v>12.92405679026456</v>
+        <v>7.89461160124187</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.035371320642376</v>
+        <v>9.338516629812091</v>
       </c>
       <c r="C55">
-        <v>10.60236721302501</v>
+        <v>10.58311407346871</v>
       </c>
       <c r="D55">
-        <v>12.86003420558269</v>
+        <v>10.49714827000952</v>
       </c>
       <c r="E55">
-        <v>10.31517539175937</v>
+        <v>12.72108131085034</v>
       </c>
       <c r="F55">
-        <v>13.12457861711311</v>
+        <v>7.970200796312719</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.10371914284735</v>
+        <v>9.456008873077952</v>
       </c>
       <c r="C56">
-        <v>10.74881968572362</v>
+        <v>10.72405499700127</v>
       </c>
       <c r="D56">
-        <v>13.04754334966147</v>
+        <v>10.55577546533501</v>
       </c>
       <c r="E56">
-        <v>10.47187960842311</v>
+        <v>12.87409519786572</v>
       </c>
       <c r="F56">
-        <v>13.32000983989115</v>
+        <v>8.039425582782952</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.165471591719369</v>
+        <v>9.566764016787475</v>
       </c>
       <c r="C57">
-        <v>10.88906573798042</v>
+        <v>10.85856840562477</v>
       </c>
       <c r="D57">
-        <v>13.22844637340359</v>
+        <v>10.60599750937854</v>
       </c>
       <c r="E57">
-        <v>10.62388556753645</v>
+        <v>13.01713588751912</v>
       </c>
       <c r="F57">
-        <v>13.50873532436866</v>
+        <v>8.101731061256938</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.220068584805361</v>
+        <v>9.669580906293042</v>
       </c>
       <c r="C58">
-        <v>11.02139724024912</v>
+        <v>10.98491345108612</v>
       </c>
       <c r="D58">
-        <v>13.4010833812363</v>
+        <v>10.64810205803018</v>
       </c>
       <c r="E58">
-        <v>10.76963766933018</v>
+        <v>13.14905356805496</v>
       </c>
       <c r="F58">
-        <v>13.6886612955614</v>
+        <v>8.156609016426637</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.267060480366799</v>
+        <v>9.763228848605623</v>
       </c>
       <c r="C59">
-        <v>11.14380214498903</v>
+        <v>11.10103379114959</v>
       </c>
       <c r="D59">
-        <v>13.56350297639337</v>
+        <v>10.6824542604028</v>
       </c>
       <c r="E59">
-        <v>10.90719001688959</v>
+        <v>13.26876347883773</v>
       </c>
       <c r="F59">
-        <v>13.85720271496017</v>
+        <v>8.203634856692966</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.306147870384835</v>
+        <v>9.846549100104125</v>
       </c>
       <c r="C60">
-        <v>11.25407917159264</v>
+        <v>11.20466409945251</v>
       </c>
       <c r="D60">
-        <v>13.71352035947766</v>
+        <v>10.70948174327008</v>
       </c>
       <c r="E60">
-        <v>11.03428689800463</v>
+        <v>13.37533145516992</v>
       </c>
       <c r="F60">
-        <v>14.01140219155696</v>
+        <v>8.242506129455318</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.337211045040758</v>
+        <v>9.918575042460647</v>
       </c>
       <c r="C61">
-        <v>11.35006858486971</v>
+        <v>11.29355062509962</v>
       </c>
       <c r="D61">
-        <v>13.84885654674857</v>
+        <v>10.7296581989719</v>
       </c>
       <c r="E61">
-        <v>11.14859711492364</v>
+        <v>13.46806668772949</v>
       </c>
       <c r="F61">
-        <v>14.14823745238807</v>
+        <v>8.27307680603144</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.360323580009074</v>
+        <v>9.97864887101831</v>
       </c>
       <c r="C62">
-        <v>11.42997966898532</v>
+        <v>11.3657730280033</v>
       </c>
       <c r="D62">
-        <v>13.96736540786396</v>
+        <v>10.74348682120699</v>
       </c>
       <c r="E62">
-        <v>11.24809821927239</v>
+        <v>13.54660507838181</v>
       </c>
       <c r="F62">
-        <v>14.26511832782735</v>
+        <v>8.295381264586457</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.375747173065371</v>
+        <v>10.02650733108063</v>
       </c>
       <c r="C63">
-        <v>11.49273656555321</v>
+        <v>11.42009662357678</v>
       </c>
       <c r="D63">
-        <v>14.06732674432392</v>
+        <v>10.75148479894441</v>
       </c>
       <c r="E63">
-        <v>11.3315167446235</v>
+        <v>13.61096562470289</v>
       </c>
       <c r="F63">
-        <v>14.36044531596149</v>
+        <v>8.309642467894287</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.383908622923175</v>
+        <v>10.06231417003805</v>
       </c>
       <c r="C64">
-        <v>11.53821723072143</v>
+        <v>11.45623616303867</v>
       </c>
       <c r="D64">
-        <v>14.14774244006089</v>
+        <v>10.75416952458648</v>
       </c>
       <c r="E64">
-        <v>11.39864292430323</v>
+        <v>13.66156303498883</v>
       </c>
       <c r="F64">
-        <v>14.43400655896624</v>
+        <v>8.316261601191165</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.385363304469046</v>
+        <v>10.08663186346858</v>
       </c>
       <c r="C65">
-        <v>11.56728279857985</v>
+        <v>11.47492191156494</v>
       </c>
       <c r="D65">
-        <v>14.20854076438753</v>
+        <v>10.75204706227533</v>
       </c>
       <c r="E65">
-        <v>11.45036900546114</v>
+        <v>13.69917585779877</v>
       </c>
       <c r="F65">
-        <v>14.48702187930286</v>
+        <v>8.315790487887886</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7.38075165746817</v>
+        <v>10.10034246746811</v>
       </c>
       <c r="C66">
-        <v>11.5815886615916</v>
+        <v>11.47774107426535</v>
       </c>
       <c r="D66">
-        <v>14.25061047695478</v>
+        <v>10.74560311150526</v>
       </c>
       <c r="E66">
-        <v>11.48844043518917</v>
+        <v>13.72487121375796</v>
       </c>
       <c r="F66">
-        <v>14.5218205662426</v>
+        <v>8.308890894946943</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7.370755468437166</v>
+        <v>10.10453985684378</v>
       </c>
       <c r="C67">
-        <v>11.58325922955073</v>
+        <v>11.46682574785604</v>
       </c>
       <c r="D67">
-        <v>14.27564777440886</v>
+        <v>10.73529642423414</v>
       </c>
       <c r="E67">
-        <v>11.51505364573834</v>
+        <v>13.73990570603211</v>
       </c>
       <c r="F67">
-        <v>14.54132095826358</v>
+        <v>8.296288225717351</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7.356059238990483</v>
+        <v>10.10041825933242</v>
       </c>
       <c r="C68">
-        <v>11.57455168724528</v>
+        <v>11.44450783818482</v>
       </c>
       <c r="D68">
-        <v>14.28587231766999</v>
+        <v>10.72155432974544</v>
       </c>
       <c r="E68">
-        <v>11.53247029901963</v>
+        <v>13.74562126629395</v>
       </c>
       <c r="F68">
-        <v>14.54852839617705</v>
+        <v>8.278726311080515</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7.337319851127816</v>
+        <v>10.08917638093376</v>
       </c>
       <c r="C69">
-        <v>11.55759859974166</v>
+        <v>11.41303956141455</v>
       </c>
       <c r="D69">
-        <v>14.28370886754544</v>
+        <v>10.70477031597949</v>
       </c>
       <c r="E69">
-        <v>11.54275204603213</v>
+        <v>13.74335327070547</v>
       </c>
       <c r="F69">
-        <v>14.5461870779383</v>
+        <v>8.256929092276787</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7.315145629270743</v>
+        <v>10.07194715924412</v>
       </c>
       <c r="C70">
-        <v>11.53425986912122</v>
+        <v>11.37442060589939</v>
       </c>
       <c r="D70">
-        <v>14.27151878332653</v>
+        <v>10.685303134565</v>
       </c>
       <c r="E70">
-        <v>11.54763255234101</v>
+        <v>13.73436114444269</v>
       </c>
       <c r="F70">
-        <v>14.53660974956996</v>
+        <v>8.231572206083035</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.290084134136531</v>
+        <v>10.04975452993598</v>
       </c>
       <c r="C71">
-        <v>11.50606923515852</v>
+        <v>11.33032499692558</v>
       </c>
       <c r="D71">
-        <v>14.25142366253486</v>
+        <v>10.66347714387569</v>
       </c>
       <c r="E71">
-        <v>11.54849226181418</v>
+        <v>13.71978419580775</v>
       </c>
       <c r="F71">
-        <v>14.52164214096693</v>
+        <v>8.20326500257041</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7.262617125112627</v>
+        <v>10.02349321610199</v>
       </c>
       <c r="C72">
-        <v>11.47424278446162</v>
+        <v>11.2820973013088</v>
       </c>
       <c r="D72">
-        <v>14.22522135508875</v>
+        <v>10.63958349227697</v>
       </c>
       <c r="E72">
-        <v>11.54639073677235</v>
+        <v>13.70062012650011</v>
       </c>
       <c r="F72">
-        <v>14.5027039623806</v>
+        <v>8.172542183899216</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.233160824886138</v>
+        <v>9.993925335900677</v>
       </c>
       <c r="C73">
-        <v>11.43971890771261</v>
+        <v>11.23078678101328</v>
       </c>
       <c r="D73">
-        <v>14.19437179579559</v>
+        <v>10.61388199692755</v>
       </c>
       <c r="E73">
-        <v>11.54212173420972</v>
+        <v>13.67772084832371</v>
       </c>
       <c r="F73">
-        <v>14.48086084981397</v>
+        <v>8.139862534176689</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.202069666170569</v>
+        <v>9.961687689174962</v>
       </c>
       <c r="C74">
-        <v>11.40320844181023</v>
+        <v>11.17719636879642</v>
       </c>
       <c r="D74">
-        <v>14.16002439192504</v>
+        <v>10.58660335980417</v>
       </c>
       <c r="E74">
-        <v>11.53627077755362</v>
+        <v>13.65179981337809</v>
       </c>
       <c r="F74">
-        <v>14.45690022167461</v>
+        <v>8.105612755898548</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7.16964205499745</v>
+        <v>9.92730479445985</v>
       </c>
       <c r="C75">
-        <v>11.36524353857566</v>
+        <v>11.12193259972759</v>
       </c>
       <c r="D75">
-        <v>14.12306435169193</v>
+        <v>10.55795158960333</v>
       </c>
       <c r="E75">
-        <v>11.52926587428552</v>
+        <v>13.62344578270872</v>
       </c>
       <c r="F75">
-        <v>14.43139855948659</v>
+        <v>8.070114254758739</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.136127000097613</v>
+        <v>9.891204143831027</v>
       </c>
       <c r="C76">
-        <v>11.32621966468745</v>
+        <v>11.06545028867781</v>
       </c>
       <c r="D76">
-        <v>14.08416297609707</v>
+        <v>10.5281064815361</v>
       </c>
       <c r="E76">
-        <v>11.52141826666237</v>
+        <v>13.59313931840216</v>
       </c>
       <c r="F76">
-        <v>14.40477567339345</v>
+        <v>8.03363123333544</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.101730877536531</v>
+        <v>9.853731515678259</v>
       </c>
       <c r="C77">
-        <v>11.28642946719381</v>
+        <v>11.00808879784216</v>
       </c>
       <c r="D77">
-        <v>14.04382419735215</v>
+        <v>10.49722606727433</v>
       </c>
       <c r="E77">
-        <v>11.51295386127872</v>
+        <v>13.56126953381156</v>
       </c>
       <c r="F77">
-        <v>14.37733660848136</v>
+        <v>7.996379071953665</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7.066623862987335</v>
+        <v>9.815165131005639</v>
       </c>
       <c r="C78">
-        <v>11.24608920019241</v>
+        <v>10.95010096370568</v>
       </c>
       <c r="D78">
-        <v>14.00242379875936</v>
+        <v>10.46544894960778</v>
       </c>
       <c r="E78">
-        <v>11.50403665531253</v>
+        <v>13.52814978279384</v>
       </c>
       <c r="F78">
-        <v>14.34930306484489</v>
+        <v>7.958532251590967</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.030945789027902</v>
+        <v>9.775728120988635</v>
       </c>
       <c r="C79">
-        <v>11.20535867259252</v>
+        <v>10.89167507519037</v>
       </c>
       <c r="D79">
-        <v>13.96024095848556</v>
+        <v>10.43289648904169</v>
       </c>
       <c r="E79">
-        <v>11.49478588581383</v>
+        <v>13.49403153076445</v>
       </c>
       <c r="F79">
-        <v>14.32083641169313</v>
+        <v>7.920231492996823</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.994811254193936</v>
+        <v>9.735599017666813</v>
       </c>
       <c r="C80">
-        <v>11.1643561420156</v>
+        <v>10.83295173916838</v>
       </c>
       <c r="D80">
-        <v>13.91748267959608</v>
+        <v>10.39967482208281</v>
       </c>
       <c r="E80">
-        <v>11.48528847587216</v>
+        <v>13.45911607164995</v>
       </c>
       <c r="F80">
-        <v>14.29205439240632</v>
+        <v>7.881589938385054</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.958314016864143</v>
+        <v>9.694920504854824</v>
       </c>
       <c r="C81">
-        <v>11.12316932063893</v>
+        <v>10.77403607733789</v>
       </c>
       <c r="D81">
-        <v>13.87430249560466</v>
+        <v>10.36587668901085</v>
       </c>
       <c r="E81">
-        <v>11.47560799704104</v>
+        <v>13.42356440259758</v>
       </c>
       <c r="F81">
-        <v>14.26304319815851</v>
+        <v>7.842698382268755</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.921530728485727</v>
+        <v>9.653806661852986</v>
       </c>
       <c r="C82">
-        <v>11.08186345004513</v>
+        <v>10.71500702759965</v>
       </c>
       <c r="D82">
-        <v>13.83081437379443</v>
+        <v>10.33158307986158</v>
       </c>
       <c r="E82">
-        <v>11.46579111562164</v>
+        <v>13.38750529993761</v>
       </c>
       <c r="F82">
-        <v>14.23386615800116</v>
+        <v>7.803629621857195</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.8845240448526</v>
+        <v>9.612348717423057</v>
       </c>
       <c r="C83">
-        <v>11.04048722043252</v>
+        <v>10.65592406272203</v>
       </c>
       <c r="D83">
-        <v>13.78710307118883</v>
+        <v>10.29686470582452</v>
       </c>
       <c r="E83">
-        <v>11.45587221856988</v>
+        <v>13.35104180174647</v>
       </c>
       <c r="F83">
-        <v>14.20456999284573</v>
+        <v>7.7644420060325</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.847345209714205</v>
+        <v>9.570619694330238</v>
       </c>
       <c r="C84">
-        <v>10.99907710112417</v>
+        <v>10.59683220409028</v>
       </c>
       <c r="D84">
-        <v>13.74323180856791</v>
+        <v>10.26178330416925</v>
       </c>
       <c r="E84">
-        <v>11.44587673937769</v>
+        <v>13.31425649595337</v>
       </c>
       <c r="F84">
-        <v>14.17518931369509</v>
+        <v>7.725182323841358</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.810036168557651</v>
+        <v>9.52867816122196</v>
       </c>
       <c r="C85">
-        <v>10.95766048852121</v>
+        <v>10.53776569289267</v>
       </c>
       <c r="D85">
-        <v>13.69924786668022</v>
+        <v>10.22639278494413</v>
       </c>
       <c r="E85">
-        <v>11.43582361788119</v>
+        <v>13.27721566575456</v>
       </c>
       <c r="F85">
-        <v>14.14574987004418</v>
+        <v>7.685888131339336</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6.772631294593474</v>
+        <v>9.486571162123475</v>
       </c>
       <c r="C86">
-        <v>10.91625807981646</v>
+        <v>10.47875070519819</v>
       </c>
       <c r="D86">
-        <v>13.65518673519791</v>
+        <v>10.19074023920856</v>
       </c>
       <c r="E86">
-        <v>11.4257270120773</v>
+        <v>13.23997261339067</v>
       </c>
       <c r="F86">
-        <v>14.11627088122716</v>
+        <v>7.646589607387809</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6.735158803184588</v>
+        <v>9.444336561383158</v>
       </c>
       <c r="C87">
-        <v>10.87488561281263</v>
+        <v>10.41980737195427</v>
       </c>
       <c r="D87">
-        <v>13.61107515979972</v>
+        <v>10.15486682519689</v>
       </c>
       <c r="E87">
-        <v>11.41559750814861</v>
+        <v>13.20257032041556</v>
       </c>
       <c r="F87">
-        <v>14.08676678744746</v>
+        <v>7.607311031593573</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.697641897532685</v>
+        <v>9.402004920417935</v>
       </c>
       <c r="C88">
-        <v>10.83355504659618</v>
+        <v>10.36095125909676</v>
       </c>
       <c r="D88">
-        <v>13.5669333673728</v>
+        <v>10.11880853860423</v>
       </c>
       <c r="E88">
-        <v>11.40544306181551</v>
+        <v>13.16504351667404</v>
       </c>
       <c r="F88">
-        <v>14.05724852387042</v>
+        <v>7.56807198207654</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.660099699586764</v>
+        <v>9.359600958798969</v>
       </c>
       <c r="C89">
-        <v>10.79227548952479</v>
+        <v>10.30219448967281</v>
       </c>
       <c r="D89">
-        <v>13.52277671041745</v>
+        <v>10.08259688336595</v>
       </c>
       <c r="E89">
-        <v>11.39526970206215</v>
+        <v>13.12742034051685</v>
       </c>
       <c r="F89">
-        <v>14.02772436302692</v>
+        <v>7.528888306597122</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.622548008701009</v>
+        <v>9.317144725291165</v>
       </c>
       <c r="C90">
-        <v>10.7510539424583</v>
+        <v>10.24354656020236</v>
       </c>
       <c r="D90">
-        <v>13.47861689634323</v>
+        <v>10.04625944246559</v>
       </c>
       <c r="E90">
-        <v>11.38508201539402</v>
+        <v>13.08972366047164</v>
       </c>
       <c r="F90">
-        <v>13.99820056653578</v>
+        <v>7.489772841436916</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.584999909230034</v>
+        <v>9.274652533697353</v>
       </c>
       <c r="C91">
-        <v>10.70989581603947</v>
+        <v>10.18501496476678</v>
       </c>
       <c r="D91">
-        <v>13.4344629424745</v>
+        <v>10.00982040624194</v>
       </c>
       <c r="E91">
-        <v>11.37488349151998</v>
+        <v>13.05197210726024</v>
       </c>
       <c r="F91">
-        <v>13.96868191898651</v>
+        <v>7.450735985522907</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.547466268447501</v>
+        <v>9.232137693735661</v>
       </c>
       <c r="C92">
-        <v>10.66880529911808</v>
+        <v>10.12660568524984</v>
       </c>
       <c r="D92">
-        <v>13.3903218027754</v>
+        <v>9.973301022769659</v>
       </c>
       <c r="E92">
-        <v>11.36467678858765</v>
+        <v>13.01418090626736</v>
       </c>
       <c r="F92">
-        <v>13.93917210595786</v>
+        <v>7.411786190224999</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.50995613897348</v>
+        <v>9.189611096463405</v>
       </c>
       <c r="C93">
-        <v>10.62778564317076</v>
+        <v>10.06832354792559</v>
       </c>
       <c r="D93">
-        <v>13.34619883437964</v>
+        <v>9.936719962689013</v>
       </c>
       <c r="E93">
-        <v>11.35446395606724</v>
+        <v>12.9763625280702</v>
       </c>
       <c r="F93">
-        <v>13.90967397873712</v>
+        <v>7.372930354125523</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.47247708506603</v>
+        <v>9.147081681282611</v>
       </c>
       <c r="C94">
-        <v>10.58683937724466</v>
+        <v>10.01017246885408</v>
       </c>
       <c r="D94">
-        <v>13.30209819179117</v>
+        <v>9.900093643883025</v>
       </c>
       <c r="E94">
-        <v>11.34424659263984</v>
+        <v>12.93852722046308</v>
       </c>
       <c r="F94">
-        <v>13.88018973922905</v>
+        <v>7.334174122814736</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.435035451079215</v>
+        <v>9.104556822337846</v>
       </c>
       <c r="C95">
-        <v>10.54596849163591</v>
+        <v>9.952155646037674</v>
       </c>
       <c r="D95">
-        <v>13.25802313511605</v>
+        <v>9.863436517988383</v>
       </c>
       <c r="E95">
-        <v>11.33402593915956</v>
+        <v>12.90068345062018</v>
       </c>
       <c r="F95">
-        <v>13.85072109783588</v>
+        <v>7.295522121942046</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.397636572450535</v>
+        <v>9.062042634295935</v>
       </c>
       <c r="C96">
-        <v>10.50517457886094</v>
+        <v>9.894275725372237</v>
       </c>
       <c r="D96">
-        <v>13.21397624183304</v>
+        <v>9.82676131959585</v>
       </c>
       <c r="E96">
-        <v>11.32380295993432</v>
+        <v>12.86283823210397</v>
       </c>
       <c r="F96">
-        <v>13.82126938691401</v>
+        <v>7.256978149235617</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6.360284954587423</v>
+        <v>9.019544200559546</v>
       </c>
       <c r="C97">
-        <v>10.46445889716447</v>
+        <v>9.836534933250871</v>
       </c>
       <c r="D97">
-        <v>13.16995955479132</v>
+        <v>9.790079295246768</v>
       </c>
       <c r="E97">
-        <v>11.31357840169849</v>
+        <v>12.8249973806233</v>
       </c>
       <c r="F97">
-        <v>13.7918356850662</v>
+        <v>7.218545332903179</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.322984420435455</v>
+        <v>8.977065756489079</v>
       </c>
       <c r="C98">
-        <v>10.42382244833603</v>
+        <v>9.778935170895544</v>
       </c>
       <c r="D98">
-        <v>13.12597469738487</v>
+        <v>9.753400386975073</v>
       </c>
       <c r="E98">
-        <v>11.3033528422114</v>
+        <v>12.7871657244886</v>
       </c>
       <c r="F98">
-        <v>13.76242084221727</v>
+        <v>7.180226257573213</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.285738232137985</v>
+        <v>8.934610836576526</v>
       </c>
       <c r="C99">
-        <v>10.38326603840547</v>
+        <v>9.721478079609774</v>
       </c>
       <c r="D99">
-        <v>13.08202297607187</v>
+        <v>9.716733394309728</v>
       </c>
       <c r="E99">
-        <v>11.29312673318056</v>
+        <v>12.74934728485237</v>
       </c>
       <c r="F99">
-        <v>13.73302552931472</v>
+        <v>7.142023063251745</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.248549195538606</v>
+        <v>8.89218242001632</v>
       </c>
       <c r="C100">
-        <v>10.34279029950967</v>
+        <v>9.664165091999665</v>
       </c>
       <c r="D100">
-        <v>13.03810544398441</v>
+        <v>9.680086113589002</v>
       </c>
       <c r="E100">
-        <v>11.28290043663147</v>
+        <v>12.71154543085946</v>
       </c>
       <c r="F100">
-        <v>13.70365028376568</v>
+        <v>7.103937519513076</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.211419707069187</v>
+        <v>8.849783033918518</v>
       </c>
       <c r="C101">
-        <v>10.30239574677807</v>
+        <v>9.606997470897339</v>
       </c>
       <c r="D101">
-        <v>12.99422298898502</v>
+        <v>9.643465460764091</v>
       </c>
       <c r="E101">
-        <v>11.27267424129984</v>
+        <v>12.67376299914602</v>
       </c>
       <c r="F101">
-        <v>13.67429553673492</v>
+        <v>7.065971103535126</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.174351836479392</v>
+        <v>8.80741483188091</v>
       </c>
       <c r="C102">
-        <v>10.26208280360337</v>
+        <v>9.549976356646846</v>
       </c>
       <c r="D102">
-        <v>12.9503763408562</v>
+        <v>9.606877577911552</v>
       </c>
       <c r="E102">
-        <v>11.26244837725036</v>
+        <v>12.63600238147828</v>
       </c>
       <c r="F102">
-        <v>13.6449616365827</v>
+        <v>7.028125050227407</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6.137347381776001</v>
+        <v>8.765079657779831</v>
       </c>
       <c r="C103">
-        <v>10.22185182186429</v>
+        <v>9.493102778438471</v>
       </c>
       <c r="D103">
-        <v>12.90656610242663</v>
+        <v>9.570327930635809</v>
       </c>
       <c r="E103">
-        <v>11.25222302787435</v>
+        <v>12.59826559736081</v>
       </c>
       <c r="F103">
-        <v>13.61564887321174</v>
+        <v>6.990400387546593</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6.100407915542847</v>
+        <v>8.722779099399425</v>
       </c>
       <c r="C104">
-        <v>10.1817030974323</v>
+        <v>9.43637770222327</v>
       </c>
       <c r="D104">
-        <v>12.86279279117412</v>
+        <v>9.533821386134223</v>
       </c>
       <c r="E104">
-        <v>11.24199833615406</v>
+        <v>12.56055435744492</v>
       </c>
       <c r="F104">
-        <v>13.58635748774068</v>
+        <v>6.952797991745465</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.06353482430299</v>
+        <v>8.680514533799661</v>
       </c>
       <c r="C105">
-        <v>10.141636873394</v>
+        <v>9.379802020491345</v>
       </c>
       <c r="D105">
-        <v>12.81905684012154</v>
+        <v>9.497362284966369</v>
       </c>
       <c r="E105">
-        <v>11.23177441730162</v>
+        <v>12.52287011540327</v>
       </c>
       <c r="F105">
-        <v>13.5570876863986</v>
+        <v>6.915318586539168</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.026729334507958</v>
+        <v>8.638287157030867</v>
       </c>
       <c r="C106">
-        <v>10.10165335470142</v>
+        <v>9.323376566157823</v>
       </c>
       <c r="D106">
-        <v>12.77535862619028</v>
+        <v>9.460954502719858</v>
       </c>
       <c r="E106">
-        <v>11.22155136366825</v>
+        <v>12.48521410474235</v>
       </c>
       <c r="F106">
-        <v>13.52783964031374</v>
+        <v>6.87796277881888</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.989992538164953</v>
+        <v>8.596098036267488</v>
       </c>
       <c r="C107">
-        <v>10.06175271538848</v>
+        <v>9.267102143193515</v>
       </c>
       <c r="D107">
-        <v>12.73169848124878</v>
+        <v>9.424601504132301</v>
       </c>
       <c r="E107">
-        <v>11.21132925215705</v>
+        <v>12.44758739541208</v>
       </c>
       <c r="F107">
-        <v>13.49861349554266</v>
+        <v>6.840731081051622</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5.953325413890449</v>
+        <v>8.553948098898733</v>
       </c>
       <c r="C108">
-        <v>10.02193510421145</v>
+        <v>9.210979503229638</v>
       </c>
       <c r="D108">
-        <v>12.68807670664768</v>
+        <v>9.388306390199654</v>
       </c>
       <c r="E108">
-        <v>11.20110814400733</v>
+        <v>12.40999089279356</v>
       </c>
       <c r="F108">
-        <v>13.46940937854963</v>
+        <v>6.803623926199115</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5.916728845222758</v>
+        <v>8.511838210908479</v>
       </c>
       <c r="C109">
-        <v>9.982200652142467</v>
+        <v>9.155009376635762</v>
       </c>
       <c r="D109">
-        <v>12.64449357297979</v>
+        <v>9.352071935836742</v>
       </c>
       <c r="E109">
-        <v>11.19088809297107</v>
+        <v>12.3724254038871</v>
       </c>
       <c r="F109">
-        <v>13.44022739935331</v>
+        <v>6.766641681487219</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5.880203633442239</v>
+        <v>8.469769121262475</v>
       </c>
       <c r="C110">
-        <v>9.942549474190942</v>
+        <v>9.099192469180194</v>
       </c>
       <c r="D110">
-        <v>12.60094932752009</v>
+        <v>9.315900639088216</v>
       </c>
       <c r="E110">
-        <v>11.18066913813306</v>
+        <v>12.33489161135551</v>
       </c>
       <c r="F110">
-        <v>13.41106765732115</v>
+        <v>6.729784657990658</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.843750512118236</v>
+        <v>8.42774154109525</v>
       </c>
       <c r="C111">
-        <v>9.902981673962159</v>
+        <v>9.043529468329218</v>
       </c>
       <c r="D111">
-        <v>12.55744420032575</v>
+        <v>9.279794726174707</v>
       </c>
       <c r="E111">
-        <v>11.17045131641923</v>
+        <v>12.29739011569978</v>
       </c>
       <c r="F111">
-        <v>13.38193024044607</v>
+        <v>6.693053123130552</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.807370160208245</v>
+        <v>8.385756099577266</v>
       </c>
       <c r="C112">
-        <v>9.863497347094134</v>
+        <v>8.988021050264001</v>
       </c>
       <c r="D112">
-        <v>12.51397840412434</v>
+        <v>9.243756235617822</v>
       </c>
       <c r="E112">
-        <v>11.16023465304278</v>
+        <v>12.25992144034587</v>
       </c>
       <c r="F112">
-        <v>13.35281523156837</v>
+        <v>6.656447301046408</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.771063206143316</v>
+        <v>8.343813387136242</v>
       </c>
       <c r="C113">
-        <v>9.824096577081738</v>
+        <v>8.932667876269386</v>
       </c>
       <c r="D113">
-        <v>12.47055214060238</v>
+        <v>9.207786964772243</v>
       </c>
       <c r="E113">
-        <v>11.15001917114726</v>
+        <v>12.2224860326334</v>
       </c>
       <c r="F113">
-        <v>13.32372270592704</v>
+        <v>6.619967382377026</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.734830244942776</v>
+        <v>8.301913949541156</v>
       </c>
       <c r="C114">
-        <v>9.784779445239488</v>
+        <v>8.877470599085228</v>
       </c>
       <c r="D114">
-        <v>12.42716560218685</v>
+        <v>9.171888576352517</v>
       </c>
       <c r="E114">
-        <v>11.13980488826017</v>
+        <v>12.18508429361835</v>
       </c>
       <c r="F114">
-        <v>13.29465273388946</v>
+        <v>6.583613529324682</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.698671828462452</v>
+        <v>8.260058298941852</v>
       </c>
       <c r="C115">
-        <v>9.745546021171409</v>
+        <v>8.822429862033218</v>
       </c>
       <c r="D115">
-        <v>12.38381897465107</v>
+        <v>9.136062532975313</v>
       </c>
       <c r="E115">
-        <v>11.12959181951103</v>
+        <v>12.14771657088169</v>
       </c>
       <c r="F115">
-        <v>13.26560538187993</v>
+        <v>6.547385879455673</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.662588487955817</v>
+        <v>8.218246923277178</v>
       </c>
       <c r="C116">
-        <v>9.706396373798672</v>
+        <v>8.76754630041715</v>
       </c>
       <c r="D116">
-        <v>12.34051243760032</v>
+        <v>9.100310182784366</v>
       </c>
       <c r="E116">
-        <v>11.11937997738524</v>
+        <v>12.11038317760296</v>
       </c>
       <c r="F116">
-        <v>13.23658071100287</v>
+        <v>6.511284549615697</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.626580719759819</v>
+        <v>8.176480285610095</v>
       </c>
       <c r="C117">
-        <v>9.667330564882542</v>
+        <v>8.712820543927112</v>
       </c>
       <c r="D117">
-        <v>12.29724616595761</v>
+        <v>9.064632724494983</v>
       </c>
       <c r="E117">
-        <v>11.10916937325482</v>
+        <v>12.07308439157928</v>
       </c>
       <c r="F117">
-        <v>13.20757878064695</v>
+        <v>6.475309637183654</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5.590649005013217</v>
+        <v>8.134758835537065</v>
       </c>
       <c r="C118">
-        <v>9.628348654635095</v>
+        <v>8.658253216988182</v>
       </c>
       <c r="D118">
-        <v>12.25402033113146</v>
+        <v>9.029031254281895</v>
       </c>
       <c r="E118">
-        <v>11.09896001594124</v>
+        <v>12.03582046600506</v>
       </c>
       <c r="F118">
-        <v>13.17859964648513</v>
+        <v>6.439461227299063</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5.554793801652131</v>
+        <v>8.093083002957377</v>
       </c>
       <c r="C119">
-        <v>9.589450700676389</v>
+        <v>8.603844939831315</v>
       </c>
       <c r="D119">
-        <v>12.21083510109556</v>
+        <v>8.993506760496441</v>
       </c>
       <c r="E119">
-        <v>11.08875191397691</v>
+        <v>11.99859162692861</v>
       </c>
       <c r="F119">
-        <v>13.14964336302726</v>
+        <v>6.403739388415757</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5.51901555501168</v>
+        <v>8.051453208573172</v>
       </c>
       <c r="C120">
-        <v>9.550636758718033</v>
+        <v>8.549596329677275</v>
       </c>
       <c r="D120">
-        <v>12.16769064172618</v>
+        <v>8.958060142860232</v>
       </c>
       <c r="E120">
-        <v>11.07854507363341</v>
+        <v>11.96139807994886</v>
       </c>
       <c r="F120">
-        <v>13.12070998333026</v>
+        <v>6.368144180812371</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5.483314697481092</v>
+        <v>8.00986985966879</v>
       </c>
       <c r="C121">
-        <v>9.511906883382045</v>
+        <v>8.495508000122006</v>
       </c>
       <c r="D121">
-        <v>12.12458711707174</v>
+        <v>8.922692219960458</v>
       </c>
       <c r="E121">
-        <v>11.06833950082711</v>
+        <v>11.9242400120765</v>
       </c>
       <c r="F121">
-        <v>13.09179955921954</v>
+        <v>6.332675654395237</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5.447691651062905</v>
+        <v>7.968333355469208</v>
       </c>
       <c r="C122">
-        <v>9.473261128165593</v>
+        <v>8.441580562592318</v>
       </c>
       <c r="D122">
-        <v>12.08152469012392</v>
+        <v>8.887403734099282</v>
       </c>
       <c r="E122">
-        <v>11.05813520013045</v>
+        <v>11.88711759257383</v>
       </c>
       <c r="F122">
-        <v>13.0629121421323</v>
+        <v>6.297333847508838</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.412146830797861</v>
+        <v>7.926844088105946</v>
       </c>
       <c r="C123">
-        <v>9.434699545045218</v>
+        <v>8.387814625592291</v>
       </c>
       <c r="D123">
-        <v>12.03850352308553</v>
+        <v>8.852195365781101</v>
       </c>
       <c r="E123">
-        <v>11.0479321756626</v>
+        <v>11.85003097821453</v>
       </c>
       <c r="F123">
-        <v>13.034047782474</v>
+        <v>6.262118795300315</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5.376680643458021</v>
+        <v>7.885402443888857</v>
       </c>
       <c r="C124">
-        <v>9.396222185688572</v>
+        <v>8.33421079549024</v>
       </c>
       <c r="D124">
-        <v>11.99552377722754</v>
+        <v>8.817067728699053</v>
       </c>
       <c r="E124">
-        <v>11.03773043092862</v>
+        <v>11.81298031285977</v>
       </c>
       <c r="F124">
-        <v>13.00520653017148</v>
+        <v>6.227030519870309</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5.341293491560926</v>
+        <v>7.844008805527177</v>
       </c>
       <c r="C125">
-        <v>9.35782910011126</v>
+        <v>8.280769676665436</v>
       </c>
       <c r="D125">
-        <v>11.95258561459481</v>
+        <v>8.78202138859017</v>
       </c>
       <c r="E125">
-        <v>11.0275299690224</v>
+        <v>11.77596573106723</v>
       </c>
       <c r="F125">
-        <v>12.97638843458372</v>
+        <v>6.192069041725294</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5.305985771647905</v>
+        <v>7.802663552201539</v>
       </c>
       <c r="C126">
-        <v>9.319520338204814</v>
+        <v>8.227491871607004</v>
       </c>
       <c r="D126">
-        <v>11.90968919550139</v>
+        <v>8.74705685597192</v>
       </c>
       <c r="E126">
-        <v>11.01733079283365</v>
+        <v>11.73898735817611</v>
       </c>
       <c r="F126">
-        <v>12.94759354438834</v>
+        <v>6.157234372176421</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5.270757877364075</v>
+        <v>7.761367061703417</v>
       </c>
       <c r="C127">
-        <v>9.28129594891905</v>
+        <v>8.174377981129846</v>
       </c>
       <c r="D127">
-        <v>11.86683468207832</v>
+        <v>8.712174600907163</v>
       </c>
       <c r="E127">
-        <v>11.00713290476792</v>
+        <v>11.70204531269819</v>
       </c>
       <c r="F127">
-        <v>12.91882190804883</v>
+        <v>6.122526519249641</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5.235610198810161</v>
+        <v>7.720119709642207</v>
       </c>
       <c r="C128">
-        <v>9.243155980904186</v>
+        <v>8.121428604502437</v>
       </c>
       <c r="D128">
-        <v>11.82402223488093</v>
+        <v>8.677375050113479</v>
       </c>
       <c r="E128">
-        <v>10.99693630724112</v>
+        <v>11.6651397060012</v>
       </c>
       <c r="F128">
-        <v>12.8900735735453</v>
+        <v>6.087945485624863</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5.200543124379393</v>
+        <v>7.678921871248931</v>
       </c>
       <c r="C129">
-        <v>9.205100482580777</v>
+        <v>8.068644339353998</v>
       </c>
       <c r="D129">
-        <v>11.78125201593869</v>
+        <v>8.642658596268577</v>
       </c>
       <c r="E129">
-        <v>10.98674100218594</v>
+        <v>11.62827064382247</v>
       </c>
       <c r="F129">
-        <v>12.86134858873335</v>
+        <v>6.053491270515107</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5.165557040854118</v>
+        <v>7.637773921121405</v>
       </c>
       <c r="C130">
-        <v>9.167129502040243</v>
+        <v>8.016025781923179</v>
       </c>
       <c r="D130">
-        <v>11.73852418686371</v>
+        <v>8.60802559710981</v>
       </c>
       <c r="E130">
-        <v>10.97654699151349</v>
+        <v>11.59143822688533</v>
       </c>
       <c r="F130">
-        <v>12.83264700133307</v>
+        <v>6.019163868563237</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5.13065233471459</v>
+        <v>7.59667623394361</v>
       </c>
       <c r="C131">
-        <v>9.129243087301607</v>
+        <v>7.963573526808843</v>
       </c>
       <c r="D131">
-        <v>11.69583891005041</v>
+        <v>8.57347638187016</v>
       </c>
       <c r="E131">
-        <v>10.96635427685147</v>
+        <v>11.55464255111786</v>
       </c>
       <c r="F131">
-        <v>12.8039688589162</v>
+        <v>5.984963272228427</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5.095829391775327</v>
+        <v>7.555629185163555</v>
       </c>
       <c r="C132">
-        <v>9.091441286237977</v>
+        <v>7.911288167157984</v>
       </c>
       <c r="D132">
-        <v>11.65319634832725</v>
+        <v>8.539011251246029</v>
       </c>
       <c r="E132">
-        <v>10.9561628597265</v>
+        <v>11.51788370898877</v>
       </c>
       <c r="F132">
-        <v>12.77531420907876</v>
+        <v>5.950889469277126</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5.061088598942288</v>
+        <v>7.514633151037189</v>
       </c>
       <c r="C133">
-        <v>9.053724146513048</v>
+        <v>7.859170294573115</v>
       </c>
       <c r="D133">
-        <v>11.61059666518462</v>
+        <v>8.504630481485965</v>
       </c>
       <c r="E133">
-        <v>10.94597274156085</v>
+        <v>11.48116178936615</v>
       </c>
       <c r="F133">
-        <v>12.74668309929483</v>
+        <v>5.916942445535975</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5.026430342912529</v>
+        <v>7.473688509328297</v>
       </c>
       <c r="C134">
-        <v>9.01609171579671</v>
+        <v>7.807220499124302</v>
       </c>
       <c r="D134">
-        <v>11.56804002474507</v>
+        <v>8.470334325916362</v>
       </c>
       <c r="E134">
-        <v>10.93578392367458</v>
+        <v>11.44447687853559</v>
       </c>
       <c r="F134">
-        <v>12.71807557703245</v>
+        <v>5.883122183164777</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>4.991855012293207</v>
+        <v>7.432795639304842</v>
       </c>
       <c r="C135">
-        <v>8.978544041518864</v>
+        <v>7.755439369334787</v>
       </c>
       <c r="D135">
-        <v>11.52552659190773</v>
+        <v>8.436123016468814</v>
       </c>
       <c r="E135">
-        <v>10.92559640733923</v>
+        <v>11.40782906015396</v>
       </c>
       <c r="F135">
-        <v>12.6894916897186</v>
+        <v>5.849428661571566</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>4.95736299617706</v>
+        <v>7.391954922271864</v>
       </c>
       <c r="C136">
-        <v>8.94108117113079</v>
+        <v>7.703827492132558</v>
       </c>
       <c r="D136">
-        <v>11.48305653232697</v>
+        <v>8.401996766883137</v>
       </c>
       <c r="E136">
-        <v>10.91541019375685</v>
+        <v>11.3712184159493</v>
       </c>
       <c r="F136">
-        <v>12.66093148473112</v>
+        <v>5.815861857575229</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>4.922954685824735</v>
+        <v>7.351166741502896</v>
       </c>
       <c r="C137">
-        <v>8.903703151971746</v>
+        <v>7.652385452753595</v>
       </c>
       <c r="D137">
-        <v>11.44063001233287</v>
+        <v>8.367955772400986</v>
       </c>
       <c r="E137">
-        <v>10.90522528408341</v>
+        <v>11.33464502567369</v>
       </c>
       <c r="F137">
-        <v>12.6323950094715</v>
+        <v>5.782421745189995</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4.888630473881926</v>
+        <v>7.310431482606374</v>
       </c>
       <c r="C138">
-        <v>8.866410031361129</v>
+        <v>7.601113834822377</v>
       </c>
       <c r="D138">
-        <v>11.39824719919461</v>
+        <v>8.334000213396944</v>
       </c>
       <c r="E138">
-        <v>10.89504167942019</v>
+        <v>11.29810896751559</v>
       </c>
       <c r="F138">
-        <v>12.60388231132245</v>
+        <v>5.749108296064143</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>4.854390755312574</v>
+        <v>7.269749533629947</v>
       </c>
       <c r="C139">
-        <v>8.829201856623444</v>
+        <v>7.550013220200314</v>
       </c>
       <c r="D139">
-        <v>11.35590826081997</v>
+        <v>8.300130254583303</v>
       </c>
       <c r="E139">
-        <v>10.8848593808306</v>
+        <v>11.26161031831192</v>
       </c>
       <c r="F139">
-        <v>12.57539343770762</v>
+        <v>5.71592147942063</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>4.820235927165965</v>
+        <v>7.229121285172575</v>
       </c>
       <c r="C140">
-        <v>8.792078675058386</v>
+        <v>7.499084188844796</v>
       </c>
       <c r="D140">
-        <v>11.31361336607307</v>
+        <v>8.266346048187609</v>
       </c>
       <c r="E140">
-        <v>10.87467838933595</v>
+        <v>11.22514915361156</v>
       </c>
       <c r="F140">
-        <v>12.54692843609074</v>
+        <v>5.682861262196454</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4.786166389101309</v>
+        <v>7.188547130649436</v>
       </c>
       <c r="C141">
-        <v>8.755040533986367</v>
+        <v>7.448327319092231</v>
       </c>
       <c r="D141">
-        <v>11.27136268459992</v>
+        <v>8.232647733236975</v>
       </c>
       <c r="E141">
-        <v>10.86449870592723</v>
+        <v>11.18872554807177</v>
       </c>
       <c r="F141">
-        <v>12.51848735397167</v>
+        <v>5.649927608984803</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4.752182543238557</v>
+        <v>7.148027466298531</v>
       </c>
       <c r="C142">
-        <v>8.718087480734269</v>
+        <v>7.397743186984997</v>
       </c>
       <c r="D142">
-        <v>11.22915638693536</v>
+        <v>8.199035438066906</v>
       </c>
       <c r="E142">
-        <v>10.85432033157392</v>
+        <v>11.15233957540349</v>
       </c>
       <c r="F142">
-        <v>12.49007023891805</v>
+        <v>5.61712048233659</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4.718284794651518</v>
+        <v>7.107562691411319</v>
       </c>
       <c r="C143">
-        <v>8.681219562616601</v>
+        <v>7.34733236687055</v>
       </c>
       <c r="D143">
-        <v>11.18699464451628</v>
+        <v>8.165509279970006</v>
       </c>
       <c r="E143">
-        <v>10.8441432672221</v>
+        <v>11.11599130869918</v>
       </c>
       <c r="F143">
-        <v>12.46167713853716</v>
+        <v>5.584439842360438</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>4.684473551103487</v>
+        <v>7.067153208352576</v>
       </c>
       <c r="C144">
-        <v>8.64443682697609</v>
+        <v>7.297095430876868</v>
       </c>
       <c r="D144">
-        <v>11.14487762967996</v>
+        <v>8.132069366909352</v>
       </c>
       <c r="E144">
-        <v>10.83396751380439</v>
+        <v>11.07968082040457</v>
       </c>
       <c r="F144">
-        <v>12.43330810049877</v>
+        <v>5.551885647264576</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>4.650749223561802</v>
+        <v>7.026799422727025</v>
       </c>
       <c r="C145">
-        <v>8.607739321132936</v>
+        <v>7.247032948881839</v>
       </c>
       <c r="D145">
-        <v>11.10280551567879</v>
+        <v>8.098715797703411</v>
       </c>
       <c r="E145">
-        <v>10.82379307224264</v>
+        <v>11.04340818254676</v>
       </c>
       <c r="F145">
-        <v>12.40496317252678</v>
+        <v>5.51945785287085</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>4.617112225929338</v>
+        <v>6.986501743413495</v>
       </c>
       <c r="C146">
-        <v>8.571127092430332</v>
+        <v>7.197145488652144</v>
       </c>
       <c r="D146">
-        <v>11.06077847672</v>
+        <v>8.065448662933324</v>
       </c>
       <c r="E146">
-        <v>10.8136199434419</v>
+        <v>11.00717346673383</v>
       </c>
       <c r="F146">
-        <v>12.37664240239985</v>
+        <v>5.487156413039147</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>4.583562975459296</v>
+        <v>6.946260582666856</v>
       </c>
       <c r="C147">
-        <v>8.534600188207234</v>
+        <v>7.147433615500329</v>
       </c>
       <c r="D147">
-        <v>11.01879668793269</v>
+        <v>8.0322680456411</v>
       </c>
       <c r="E147">
-        <v>10.80344812830324</v>
+        <v>10.97097674428272</v>
       </c>
       <c r="F147">
-        <v>12.34834583796315</v>
+        <v>5.454981279425796</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>4.550101892604668</v>
+        <v>6.90607635620454</v>
       </c>
       <c r="C148">
-        <v>8.498158655810897</v>
+        <v>7.097897892397488</v>
       </c>
       <c r="D148">
-        <v>10.97686032540217</v>
+        <v>7.999174021516938</v>
       </c>
       <c r="E148">
-        <v>10.79327762771249</v>
+        <v>10.93481808629626</v>
       </c>
       <c r="F148">
-        <v>12.32007352712167</v>
+        <v>5.422932401631139</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>4.516729401284226</v>
+        <v>6.865949483215703</v>
       </c>
       <c r="C149">
-        <v>8.461802542598623</v>
+        <v>7.048538879784462</v>
       </c>
       <c r="D149">
-        <v>10.93496956617744</v>
+        <v>7.966166659985434</v>
       </c>
       <c r="E149">
-        <v>10.78310844255172</v>
+        <v>10.8986975636326</v>
       </c>
       <c r="F149">
-        <v>12.29182551785055</v>
+        <v>5.39100972716603</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>4.483445928832785</v>
+        <v>6.825880386556043</v>
       </c>
       <c r="C150">
-        <v>8.425531895928879</v>
+        <v>6.999357135513064</v>
       </c>
       <c r="D150">
-        <v>10.89312458825655</v>
+        <v>7.933246023612661</v>
       </c>
       <c r="E150">
-        <v>10.77294057369408</v>
+        <v>10.86261524717555</v>
       </c>
       <c r="F150">
-        <v>12.26360185819501</v>
+        <v>5.359213201482472</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>4.450251906177453</v>
+        <v>6.785869492720227</v>
       </c>
       <c r="C151">
-        <v>8.389346763165133</v>
+        <v>6.950353214781755</v>
       </c>
       <c r="D151">
-        <v>10.85132557062547</v>
+        <v>7.900412170205218</v>
       </c>
       <c r="E151">
-        <v>10.76277402200873</v>
+        <v>10.82657120774933</v>
       </c>
       <c r="F151">
-        <v>12.23540259626953</v>
+        <v>5.327542767965662</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>4.417147767810857</v>
+        <v>6.745917231846593</v>
       </c>
       <c r="C152">
-        <v>8.353247191671123</v>
+        <v>6.901527669976446</v>
       </c>
       <c r="D152">
-        <v>10.80957269324314</v>
+        <v>7.867665152096716</v>
       </c>
       <c r="E152">
-        <v>10.75260878836093</v>
+        <v>10.79056551602292</v>
       </c>
       <c r="F152">
-        <v>12.20722778026363</v>
+        <v>5.295998367945624</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>4.384133951943618</v>
+        <v>6.70602403803866</v>
       </c>
       <c r="C153">
-        <v>8.317233228802028</v>
+        <v>6.852881050677434</v>
       </c>
       <c r="D153">
-        <v>10.7678661370601</v>
+        <v>7.83500501537153</v>
       </c>
       <c r="E153">
-        <v>10.74244487361269</v>
+        <v>10.75459824305143</v>
       </c>
       <c r="F153">
-        <v>12.17907745843646</v>
+        <v>5.264579940706478</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>4.351210900465817</v>
+        <v>6.666190349072465</v>
       </c>
       <c r="C154">
-        <v>8.281304921909692</v>
+        <v>6.804413903468971</v>
       </c>
       <c r="D154">
-        <v>10.7262060840268</v>
+        <v>7.802431803934219</v>
       </c>
       <c r="E154">
-        <v>10.73228227862474</v>
+        <v>10.71866945974121</v>
       </c>
       <c r="F154">
-        <v>12.15095167912133</v>
+        <v>5.233287423446287</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>4.318379059089432</v>
+        <v>6.626416606656047</v>
       </c>
       <c r="C155">
-        <v>8.245462318328265</v>
+        <v>6.756126771884989</v>
       </c>
       <c r="D155">
-        <v>10.6845927170969</v>
+        <v>7.76994555597095</v>
       </c>
       <c r="E155">
-        <v>10.72212100425276</v>
+        <v>10.68277923711623</v>
       </c>
       <c r="F155">
-        <v>12.12285049072369</v>
+        <v>5.202120751335576</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>4.285638877312319</v>
+        <v>6.586703256571125</v>
       </c>
       <c r="C156">
-        <v>8.209705465379484</v>
+        <v>6.708020196337871</v>
       </c>
       <c r="D156">
-        <v>10.64302622023397</v>
+        <v>7.737546304729267</v>
       </c>
       <c r="E156">
-        <v>10.7119610513553</v>
+        <v>10.64692764664504</v>
       </c>
       <c r="F156">
-        <v>12.09477394172165</v>
+        <v>5.171079857442772</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>4.25299080853538</v>
+        <v>6.547050748347468</v>
       </c>
       <c r="C157">
-        <v>8.174034410363053</v>
+        <v>6.660094713938287</v>
       </c>
       <c r="D157">
-        <v>10.60150677842458</v>
+        <v>7.705234082133634</v>
       </c>
       <c r="E157">
-        <v>10.7018024207904</v>
+        <v>10.61111475958341</v>
       </c>
       <c r="F157">
-        <v>12.06672208066766</v>
+        <v>5.14016467279547</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>4.220435310045952</v>
+        <v>6.50745953576394</v>
       </c>
       <c r="C158">
-        <v>8.13844920055536</v>
+        <v>6.612350858496432</v>
       </c>
       <c r="D158">
-        <v>10.56003457767161</v>
+        <v>7.673008914405213</v>
       </c>
       <c r="E158">
-        <v>10.69164511340804</v>
+        <v>10.57534064768775</v>
       </c>
       <c r="F158">
-        <v>12.03869495618749</v>
+        <v>5.109375126328236</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>4.187972843103529</v>
+        <v>6.467930076627545</v>
       </c>
       <c r="C159">
-        <v>8.102949883205099</v>
+        <v>6.564789160342062</v>
       </c>
       <c r="D159">
-        <v>10.51860980501353</v>
+        <v>7.640870824786625</v>
       </c>
       <c r="E159">
-        <v>10.68148913006856</v>
+        <v>10.53960538291658</v>
       </c>
       <c r="F159">
-        <v>12.01069261698181</v>
+        <v>5.078711144908332</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>4.155603872939728</v>
+        <v>6.42846283281819</v>
       </c>
       <c r="C160">
-        <v>8.067536505528064</v>
+        <v>6.517410146260504</v>
       </c>
       <c r="D160">
-        <v>10.4772326485202</v>
+        <v>7.608819834366289</v>
       </c>
       <c r="E160">
-        <v>10.67133447162889</v>
+        <v>10.50390903733955</v>
       </c>
       <c r="F160">
-        <v>11.98271511182619</v>
+        <v>5.048172653313643</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>4.123328868807542</v>
+        <v>6.389058270474262</v>
       </c>
       <c r="C161">
-        <v>8.0322091147028</v>
+        <v>6.470214339391634</v>
       </c>
       <c r="D161">
-        <v>10.43590329730235</v>
+        <v>7.576855959765107</v>
       </c>
       <c r="E161">
-        <v>10.66118113893995</v>
+        <v>10.46825168346053</v>
       </c>
       <c r="F161">
-        <v>11.95476248957065</v>
+        <v>5.017759574238471</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>4.091148303996754</v>
+        <v>6.349716859932145</v>
       </c>
       <c r="C162">
-        <v>7.996967757866231</v>
+        <v>6.423202259097249</v>
       </c>
       <c r="D162">
-        <v>10.39462194151808</v>
+        <v>7.54497921568263</v>
       </c>
       <c r="E162">
-        <v>10.65102913286271</v>
+        <v>10.43263339403086</v>
       </c>
       <c r="F162">
-        <v>11.92683479914074</v>
+        <v>4.987471828274569</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>4.059062655937288</v>
+        <v>6.310439075802297</v>
       </c>
       <c r="C163">
-        <v>7.961812482106786</v>
+        <v>6.376374420902494</v>
       </c>
       <c r="D163">
-        <v>10.35338877237663</v>
+        <v>7.513189614098762</v>
       </c>
       <c r="E163">
-        <v>10.64087845425419</v>
+        <v>10.3970542421076</v>
       </c>
       <c r="F163">
-        <v>11.89893208953515</v>
+        <v>4.957309333918674</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>4.027072406101698</v>
+        <v>6.271225397031855</v>
       </c>
       <c r="C164">
-        <v>7.926743334460778</v>
+        <v>6.329731336340253</v>
       </c>
       <c r="D164">
-        <v>10.31220398214545</v>
+        <v>7.48148716394971</v>
       </c>
       <c r="E164">
-        <v>10.63072910397034</v>
+        <v>10.36151430113381</v>
       </c>
       <c r="F164">
-        <v>11.87105440982851</v>
+        <v>4.927272007550411</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>3.995178040080716</v>
+        <v>6.232076306906355</v>
       </c>
       <c r="C165">
-        <v>7.891760361905346</v>
+        <v>6.2832735128834</v>
       </c>
       <c r="D165">
-        <v>10.27106776415557</v>
+        <v>7.449871872360955</v>
       </c>
       <c r="E165">
-        <v>10.62058108287193</v>
+        <v>10.32601364486177</v>
       </c>
       <c r="F165">
-        <v>11.84320180917183</v>
+        <v>4.897359763434001</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>3.963380047755759</v>
+        <v>6.192992293142925</v>
       </c>
       <c r="C166">
-        <v>7.856863611358197</v>
+        <v>6.237001453824494</v>
       </c>
       <c r="D166">
-        <v>10.22998031280686</v>
+        <v>7.418343744049277</v>
       </c>
       <c r="E166">
-        <v>10.6104343918189</v>
+        <v>10.29055234744152</v>
       </c>
       <c r="F166">
-        <v>11.81537433678622</v>
+        <v>4.867572513706636</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3.93167892304863</v>
+        <v>6.153973847906025</v>
       </c>
       <c r="C167">
-        <v>7.822053129665617</v>
+        <v>6.190915658145192</v>
       </c>
       <c r="D167">
-        <v>10.18894182357293</v>
+        <v>7.386902781235197</v>
       </c>
       <c r="E167">
-        <v>10.60028903167256</v>
+        <v>10.25513048342695</v>
       </c>
       <c r="F167">
-        <v>11.78757204197052</v>
+        <v>4.837910168368584</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>3.900075164046554</v>
+        <v>6.115021467818958</v>
       </c>
       <c r="C168">
-        <v>7.787328963598376</v>
+        <v>6.14501662045529</v>
       </c>
       <c r="D168">
-        <v>10.14795249300804</v>
+        <v>7.355548984677591</v>
       </c>
       <c r="E168">
-        <v>10.59014500329604</v>
+        <v>10.21974812768701</v>
       </c>
       <c r="F168">
-        <v>11.75979497409988</v>
+        <v>4.808372635279663</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3.868569273215646</v>
+        <v>6.07613565407651</v>
       </c>
       <c r="C169">
-        <v>7.752691159855182</v>
+        <v>6.099304830825994</v>
       </c>
       <c r="D169">
-        <v>10.10701251874941</v>
+        <v>7.324282352880156</v>
       </c>
       <c r="E169">
-        <v>10.58000230755409</v>
+        <v>10.18440535557707</v>
       </c>
       <c r="F169">
-        <v>11.7320431826182</v>
+        <v>4.778959820146627</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3.837161757092345</v>
+        <v>6.037316912425045</v>
       </c>
       <c r="C170">
-        <v>7.718139765044485</v>
+        <v>6.053780774726818</v>
       </c>
       <c r="D170">
-        <v>10.06612209952577</v>
+        <v>7.293102882240505</v>
       </c>
       <c r="E170">
-        <v>10.56986094531319</v>
+        <v>10.14910224283739</v>
       </c>
       <c r="F170">
-        <v>11.70431671704633</v>
+        <v>4.749671626518201</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3.805853126419777</v>
+        <v>5.998565753213347</v>
       </c>
       <c r="C171">
-        <v>7.683674825679932</v>
+        <v>6.008444932890873</v>
       </c>
       <c r="D171">
-        <v>10.02528143515929</v>
+        <v>7.262010567912441</v>
       </c>
       <c r="E171">
-        <v>10.55972091744171</v>
+        <v>10.11383886559246</v>
       </c>
       <c r="F171">
-        <v>11.67661562698049</v>
+        <v>4.720507955775764</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>3.774643896318634</v>
+        <v>5.959882691464896</v>
       </c>
       <c r="C172">
-        <v>7.649296388188485</v>
+        <v>5.96329778119546</v>
       </c>
       <c r="D172">
-        <v>9.984490726573025</v>
+        <v>7.231005402894285</v>
       </c>
       <c r="E172">
-        <v>10.54958222480931</v>
+        <v>10.07861530045078</v>
       </c>
       <c r="F172">
-        <v>11.6489399620868</v>
+        <v>4.691468707125056</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3.743534586044708</v>
+        <v>5.921268246876657</v>
       </c>
       <c r="C173">
-        <v>7.615004498888905</v>
+        <v>5.918339790579705</v>
       </c>
       <c r="D173">
-        <v>9.943750175794674</v>
+        <v>7.200087378570787</v>
       </c>
       <c r="E173">
-        <v>10.53944486828845</v>
+        <v>10.04343162443008</v>
       </c>
       <c r="F173">
-        <v>11.62128977210612</v>
+        <v>4.66255377758843</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3.712525719095038</v>
+        <v>5.882722943886149</v>
       </c>
       <c r="C174">
-        <v>7.580799203986731</v>
+        <v>5.873571426890029</v>
       </c>
       <c r="D174">
-        <v>9.903059985962125</v>
+        <v>7.16925648499682</v>
       </c>
       <c r="E174">
-        <v>10.52930884875334</v>
+        <v>10.00828791499531</v>
       </c>
       <c r="F174">
-        <v>11.59366510685307</v>
+        <v>4.633763061996854</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3.681617823312652</v>
+        <v>5.844247311704553</v>
       </c>
       <c r="C175">
-        <v>7.546680549581387</v>
+        <v>5.828993150807745</v>
       </c>
       <c r="D175">
-        <v>9.862420361328187</v>
+        <v>7.13851271034868</v>
       </c>
       <c r="E175">
-        <v>10.51917416707924</v>
+        <v>9.973184250081511</v>
       </c>
       <c r="F175">
-        <v>11.5660660162139</v>
+        <v>4.605096452981432</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>3.650811430720692</v>
+        <v>5.805841884346681</v>
       </c>
       <c r="C176">
-        <v>7.512648581647372</v>
+        <v>5.784605417707545</v>
       </c>
       <c r="D176">
-        <v>9.821831507265747</v>
+        <v>7.107856041530356</v>
       </c>
       <c r="E176">
-        <v>10.50904082414458</v>
+        <v>9.938120708069576</v>
       </c>
       <c r="F176">
-        <v>11.53849255014768</v>
+        <v>4.576553840965548</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3.620107077599421</v>
+        <v>5.767507200686454</v>
       </c>
       <c r="C177">
-        <v>7.478703346028786</v>
+        <v>5.740408677544774</v>
       </c>
       <c r="D177">
-        <v>9.781293630273352</v>
+        <v>7.077286464042594</v>
       </c>
       <c r="E177">
-        <v>10.4989088208294</v>
+        <v>9.903097367823783</v>
       </c>
       <c r="F177">
-        <v>11.51094475868594</v>
+        <v>4.548135114158915</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>3.589505304557992</v>
+        <v>5.729243804482975</v>
       </c>
       <c r="C178">
-        <v>7.444844888441921</v>
+        <v>5.696403374759282</v>
       </c>
       <c r="D178">
-        <v>9.740806937978949</v>
+        <v>7.046803961815319</v>
       </c>
       <c r="E178">
-        <v>10.48877815801539</v>
+        <v>9.868114308683472</v>
       </c>
       <c r="F178">
-        <v>11.48342269193202</v>
+        <v>4.519840158545946</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>3.559006656374693</v>
+        <v>5.691052244418719</v>
       </c>
       <c r="C179">
-        <v>7.411073254461022</v>
+        <v>5.652589948127964</v>
       </c>
       <c r="D179">
-        <v>9.700371639143727</v>
+        <v>7.01640851765134</v>
       </c>
       <c r="E179">
-        <v>10.47864883658683</v>
+        <v>9.833171610461374</v>
       </c>
       <c r="F179">
-        <v>11.4559264000611</v>
+        <v>4.491668857879758</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>3.528611682074226</v>
+        <v>5.652933074151857</v>
       </c>
       <c r="C180">
-        <v>7.377388489511892</v>
+        <v>5.608968830682468</v>
       </c>
       <c r="D180">
-        <v>9.659987943671471</v>
+        <v>6.986100113011933</v>
       </c>
       <c r="E180">
-        <v>10.46852085742994</v>
+        <v>9.798269353475202</v>
       </c>
       <c r="F180">
-        <v>11.42845593331993</v>
+        <v>4.463621093679837</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>3.498320935001224</v>
+        <v>5.614886852331425</v>
       </c>
       <c r="C181">
-        <v>7.343790638871859</v>
+        <v>5.565540449568739</v>
       </c>
       <c r="D181">
-        <v>9.619656062609916</v>
+        <v>6.955878727975533</v>
       </c>
       <c r="E181">
-        <v>10.4583942214331</v>
+        <v>9.763407618529778</v>
       </c>
       <c r="F181">
-        <v>11.40101134202595</v>
+        <v>4.43569674521828</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3.468134972621446</v>
+        <v>5.576914142651711</v>
       </c>
       <c r="C182">
-        <v>7.310279747657461</v>
+        <v>5.522305225935352</v>
       </c>
       <c r="D182">
-        <v>9.579376208150753</v>
+        <v>6.925744341594359</v>
       </c>
       <c r="E182">
-        <v>10.44826892948686</v>
+        <v>9.728586486926654</v>
       </c>
       <c r="F182">
-        <v>11.37359267656767</v>
+        <v>4.40789568951056</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3.438054356613438</v>
+        <v>5.539015513889734</v>
       </c>
       <c r="C183">
-        <v>7.276855860816515</v>
+        <v>5.479263574826969</v>
       </c>
       <c r="D183">
-        <v>9.539148593645624</v>
+        <v>6.895696931646933</v>
       </c>
       <c r="E183">
-        <v>10.43814498248406</v>
+        <v>9.693806040486956</v>
       </c>
       <c r="F183">
-        <v>11.34619998740445</v>
+        <v>4.38021780131831</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>3.408079652942091</v>
+        <v>5.501191539917744</v>
       </c>
       <c r="C184">
-        <v>7.243519023129235</v>
+        <v>5.436415905047604</v>
       </c>
       <c r="D184">
-        <v>9.498973433603458</v>
+        <v>6.865736474674969</v>
       </c>
       <c r="E184">
-        <v>10.42802238131979</v>
+        <v>9.659066361529867</v>
       </c>
       <c r="F184">
-        <v>11.318833325065</v>
+        <v>4.352662953142374</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>3.378211431630801</v>
+        <v>5.463442799774813</v>
       </c>
       <c r="C185">
-        <v>7.210269279194847</v>
+        <v>5.393762619063924</v>
       </c>
       <c r="D185">
-        <v>9.458850943691944</v>
+        <v>6.835862946252209</v>
       </c>
       <c r="E185">
-        <v>10.41790112689139</v>
+        <v>9.624367532898244</v>
       </c>
       <c r="F185">
-        <v>11.29149274014815</v>
+        <v>4.325231015199052</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3.348450266860941</v>
+        <v>5.425769877678175</v>
       </c>
       <c r="C186">
-        <v>7.177106673422628</v>
+        <v>5.351304112872242</v>
       </c>
       <c r="D186">
-        <v>9.418781340749261</v>
+        <v>6.806076320730267</v>
       </c>
       <c r="E186">
-        <v>10.40778122009845</v>
+        <v>9.589709637959102</v>
       </c>
       <c r="F186">
-        <v>11.26417828332253</v>
+        <v>4.297921855430784</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3.318796737034431</v>
+        <v>5.388173363055429</v>
       </c>
       <c r="C187">
-        <v>7.144031250034521</v>
+        <v>5.309040775885746</v>
       </c>
       <c r="D187">
-        <v>9.378764842786747</v>
+        <v>6.77637657137951</v>
       </c>
       <c r="E187">
-        <v>10.39766266184296</v>
+        <v>9.555092760598185</v>
       </c>
       <c r="F187">
-        <v>11.23689000532525</v>
+        <v>4.270735339509877</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>3.289251424533198</v>
+        <v>5.350653850603722</v>
       </c>
       <c r="C188">
-        <v>7.111043053050671</v>
+        <v>5.266972990820049</v>
       </c>
       <c r="D188">
-        <v>9.338801668989898</v>
+        <v>6.746763670497424</v>
       </c>
       <c r="E188">
-        <v>10.38754545302925</v>
+        <v>9.520516985240555</v>
       </c>
       <c r="F188">
-        <v>11.2096279569623</v>
+        <v>4.24367133079868</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3.259814915820248</v>
+        <v>5.313211940295901</v>
       </c>
       <c r="C189">
-        <v>7.078142126280092</v>
+        <v>5.225101133567072</v>
       </c>
       <c r="D189">
-        <v>9.29889203972407</v>
+        <v>6.717237589234826</v>
       </c>
       <c r="E189">
-        <v>10.37742959456379</v>
+        <v>9.485982396845255</v>
       </c>
       <c r="F189">
-        <v>11.18239218910828</v>
+        <v>4.216729690366845</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3.230487801487788</v>
+        <v>5.275848237428606</v>
       </c>
       <c r="C190">
-        <v>7.045328513323253</v>
+        <v>5.183425573085832</v>
       </c>
       <c r="D190">
-        <v>9.259036176543205</v>
+        <v>6.687798297782415</v>
       </c>
       <c r="E190">
-        <v>10.36731508735559</v>
+        <v>9.451489080910576</v>
       </c>
       <c r="F190">
-        <v>11.15518275270546</v>
+        <v>4.189910277005115</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3.201270676001231</v>
+        <v>5.23856335266415</v>
       </c>
       <c r="C191">
-        <v>7.012602257557715</v>
+        <v>5.14194667127806</v>
       </c>
       <c r="D191">
-        <v>9.219234302189495</v>
+        <v>6.658445765347238</v>
       </c>
       <c r="E191">
-        <v>10.35720193231598</v>
+        <v>9.417037123484413</v>
       </c>
       <c r="F191">
-        <v>11.1279996987638</v>
+        <v>4.163212947173178</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3.172164137805656</v>
+        <v>5.20135790202757</v>
       </c>
       <c r="C192">
-        <v>6.979963402128603</v>
+        <v>5.100664782873468</v>
       </c>
       <c r="D192">
-        <v>9.17948664059586</v>
+        <v>6.629179960069439</v>
       </c>
       <c r="E192">
-        <v>10.34709013035856</v>
+        <v>9.382626611162115</v>
       </c>
       <c r="F192">
-        <v>11.10084307836065</v>
+        <v>4.136637555024123</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>3.143168789361949</v>
+        <v>5.164232506986505</v>
       </c>
       <c r="C193">
-        <v>6.947411989950355</v>
+        <v>5.059580255312153</v>
       </c>
       <c r="D193">
-        <v>9.139793416897835</v>
+        <v>6.600000849200926</v>
       </c>
       <c r="E193">
-        <v>10.3369796823994</v>
+        <v>9.348257631094516</v>
       </c>
       <c r="F193">
-        <v>11.07371294263995</v>
+        <v>4.110183952410909</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>3.114285236862429</v>
+        <v>5.127187794451634</v>
       </c>
       <c r="C194">
-        <v>6.914948063692939</v>
+        <v>5.018693428626018</v>
       </c>
       <c r="D194">
-        <v>9.100154857432601</v>
+        <v>6.57090839901825</v>
       </c>
       <c r="E194">
-        <v>10.32687058935694</v>
+        <v>9.313930270993835</v>
       </c>
       <c r="F194">
-        <v>11.04660934281223</v>
+        <v>4.08385198885727</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3.085514090350209</v>
+        <v>5.090224396795641</v>
       </c>
       <c r="C195">
-        <v>6.882571665771837</v>
+        <v>4.978004635327112</v>
       </c>
       <c r="D195">
-        <v>9.060571189738686</v>
+        <v>6.541902574803552</v>
       </c>
       <c r="E195">
-        <v>10.31676285215203</v>
+        <v>9.279644619130915</v>
       </c>
       <c r="F195">
-        <v>11.01953233015418</v>
+        <v>4.057641511555788</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3.056855963744229</v>
+        <v>5.053342951926715</v>
       </c>
       <c r="C196">
-        <v>6.850282838349464</v>
+        <v>4.937514200278809</v>
       </c>
       <c r="D196">
-        <v>9.021042642570668</v>
+        <v>6.51298334097779</v>
       </c>
       <c r="E196">
-        <v>10.30665647170794</v>
+        <v>9.245400764348721</v>
       </c>
       <c r="F196">
-        <v>10.9924819560079</v>
+        <v>4.031552365383283</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3.028311474519252</v>
+        <v>5.01654410327302</v>
       </c>
       <c r="C197">
-        <v>6.818081623321536</v>
+        <v>4.897222440585795</v>
       </c>
       <c r="D197">
-        <v>8.981569445896922</v>
+        <v>6.484150661013273</v>
       </c>
       <c r="E197">
-        <v>10.29655144895038</v>
+        <v>9.211198796060829</v>
       </c>
       <c r="F197">
-        <v>10.96545827178078</v>
+        <v>4.005584392890413</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>2.999881243841565</v>
+        <v>4.979828499825081</v>
       </c>
       <c r="C198">
-        <v>6.785968062306346</v>
+        <v>4.857129665482286</v>
       </c>
       <c r="D198">
-        <v>8.942151830900757</v>
+        <v>6.4554044974425</v>
       </c>
       <c r="E198">
-        <v>10.2864477848075</v>
+        <v>9.177038804254366</v>
       </c>
       <c r="F198">
-        <v>10.93846132894527</v>
+        <v>3.979737434275785</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>2.971565896580299</v>
+        <v>4.94319679618749</v>
       </c>
       <c r="C199">
-        <v>6.753942196646505</v>
+        <v>4.817236176230644</v>
       </c>
       <c r="D199">
-        <v>8.902790029988907</v>
+        <v>6.426744811952311</v>
       </c>
       <c r="E199">
-        <v>10.27634548020992</v>
+        <v>9.142920879499572</v>
       </c>
       <c r="F199">
-        <v>10.91149117903785</v>
+        <v>3.954011327409286</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>2.943366060952153</v>
+        <v>4.906649652547808</v>
       </c>
       <c r="C200">
-        <v>6.722004067395008</v>
+        <v>4.777542265955141</v>
       </c>
       <c r="D200">
-        <v>8.863484276797012</v>
+        <v>6.398171565301245</v>
       </c>
       <c r="E200">
-        <v>10.26624453609072</v>
+        <v>9.10884511294933</v>
       </c>
       <c r="F200">
-        <v>10.88454787365903</v>
+        <v>3.928405907838282</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>2.915282368673104</v>
+        <v>4.870187734764694</v>
       </c>
       <c r="C201">
-        <v>6.69015371530389</v>
+        <v>4.738048219563824</v>
       </c>
       <c r="D201">
-        <v>8.824234806187979</v>
+        <v>6.369684717360232</v>
       </c>
       <c r="E201">
-        <v>10.25614495338545</v>
+        <v>9.074811596344313</v>
       </c>
       <c r="F201">
-        <v>10.8576314644731</v>
+        <v>3.90292100874164</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>2.887315454952409</v>
+        <v>4.833811714362502</v>
       </c>
       <c r="C202">
-        <v>6.658391180826305</v>
+        <v>4.698754313661574</v>
       </c>
       <c r="D202">
-        <v>8.78504185425504</v>
+        <v>6.341284227155588</v>
       </c>
       <c r="E202">
-        <v>10.24604673303219</v>
+        <v>9.04082042201871</v>
       </c>
       <c r="F202">
-        <v>10.83074200320707</v>
+        <v>3.877556460959302</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>2.859465958103042</v>
+        <v>4.797522268522258</v>
       </c>
       <c r="C203">
-        <v>6.626716504102275</v>
+        <v>4.659660816409428</v>
       </c>
       <c r="D203">
-        <v>8.745905658334369</v>
+        <v>6.312970052807127</v>
       </c>
       <c r="E203">
-        <v>10.23594987597144</v>
+        <v>9.00687168290073</v>
       </c>
       <c r="F203">
-        <v>10.80387954165064</v>
+        <v>3.852312093012301</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>2.831734519709673</v>
+        <v>4.761320080177468</v>
       </c>
       <c r="C204">
-        <v>6.595129724946964</v>
+        <v>4.6207679873605</v>
       </c>
       <c r="D204">
-        <v>8.706826457001098</v>
+        <v>6.28474215158957</v>
       </c>
       <c r="E204">
-        <v>10.22585438314629</v>
+        <v>8.972965472520583</v>
       </c>
       <c r="F204">
-        <v>10.77704413165591</v>
+        <v>3.827187731041862</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>2.804121784602393</v>
+        <v>4.725205837947693</v>
       </c>
       <c r="C205">
-        <v>6.563630882852687</v>
+        <v>4.582076077402774</v>
       </c>
       <c r="D205">
-        <v>8.66780449006774</v>
+        <v>6.256600479930134</v>
       </c>
       <c r="E205">
-        <v>10.21576025550229</v>
+        <v>8.939101885013184</v>
       </c>
       <c r="F205">
-        <v>10.75023582513638</v>
+        <v>3.802183198845861</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>2.776628400430656</v>
+        <v>4.689180236184817</v>
       </c>
       <c r="C206">
-        <v>6.532220016974607</v>
+        <v>4.543585328736372</v>
       </c>
       <c r="D206">
-        <v>8.628839998602311</v>
+        <v>6.228544993341088</v>
       </c>
       <c r="E206">
-        <v>10.20566749398753</v>
+        <v>8.905281015122203</v>
       </c>
       <c r="F206">
-        <v>10.72345467406685</v>
+        <v>3.777298317895023</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>2.749255017850076</v>
+        <v>4.65324397508514</v>
       </c>
       <c r="C207">
-        <v>6.50089716611871</v>
+        <v>4.5052959745863</v>
       </c>
       <c r="D207">
-        <v>8.589933224922019</v>
+        <v>6.200575646557333</v>
       </c>
       <c r="E207">
-        <v>10.19557609955265</v>
+        <v>8.87150295819842</v>
       </c>
       <c r="F207">
-        <v>10.69670073048308</v>
+        <v>3.752532907291505</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>2.722002290473127</v>
+        <v>4.617397760637655</v>
       </c>
       <c r="C208">
-        <v>6.469662368743522</v>
+        <v>4.467208239162865</v>
       </c>
       <c r="D208">
-        <v>8.551084412591441</v>
+        <v>6.172692393464387</v>
       </c>
       <c r="E208">
-        <v>10.18548607315082</v>
+        <v>8.837767810213279</v>
       </c>
       <c r="F208">
-        <v>10.66997404648087</v>
+        <v>3.727886783781758</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>2.694870874403043</v>
+        <v>4.581642304547628</v>
       </c>
       <c r="C209">
-        <v>6.438515662945854</v>
+        <v>4.429322337576351</v>
       </c>
       <c r="D209">
-        <v>8.512293806437453</v>
+        <v>6.144895187125949</v>
       </c>
       <c r="E209">
-        <v>10.17539741573775</v>
+        <v>8.80407566775936</v>
       </c>
       <c r="F209">
-        <v>10.64327467421584</v>
+        <v>3.703359761777555</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>2.667861428442595</v>
+        <v>4.545978324204992</v>
       </c>
       <c r="C210">
-        <v>6.407457086448614</v>
+        <v>4.391638475865459</v>
       </c>
       <c r="D210">
-        <v>8.473561652547966</v>
+        <v>6.117183979645521</v>
       </c>
       <c r="E210">
-        <v>10.16531012827175</v>
+        <v>8.770426628053199</v>
       </c>
       <c r="F210">
-        <v>10.61660266590314</v>
+        <v>3.678951653341484</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>2.640974614018505</v>
+        <v>4.510406543139533</v>
       </c>
       <c r="C211">
-        <v>6.376486676601919</v>
+        <v>4.354156850562641</v>
       </c>
       <c r="D211">
-        <v>8.43488819826938</v>
+        <v>6.089558722406183</v>
       </c>
       <c r="E211">
-        <v>10.15522421171366</v>
+        <v>8.736820788932565</v>
       </c>
       <c r="F211">
-        <v>10.58995807381647</v>
+        <v>3.654662268168102</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>2.61421109467312</v>
+        <v>4.474927690654348</v>
       </c>
       <c r="C212">
-        <v>6.345604470369143</v>
+        <v>4.31687764881705</v>
       </c>
       <c r="D212">
-        <v>8.396273692212699</v>
+        <v>6.062019365995297</v>
       </c>
       <c r="E212">
-        <v>10.14513966702695</v>
+        <v>8.703258248871331</v>
       </c>
       <c r="F212">
-        <v>10.56334095028784</v>
+        <v>3.630491413614649</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>2.587571536297201</v>
+        <v>4.439542501819288</v>
       </c>
       <c r="C213">
-        <v>6.314810504314733</v>
+        <v>4.279801048292183</v>
       </c>
       <c r="D213">
-        <v>8.357718384263201</v>
+        <v>6.034565860171709</v>
       </c>
       <c r="E213">
-        <v>10.13505649517764</v>
+        <v>8.669739106981426</v>
       </c>
       <c r="F213">
-        <v>10.53675134770731</v>
+        <v>3.606438894707326</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>2.561056607024357</v>
+        <v>4.404251717159161</v>
       </c>
       <c r="C214">
-        <v>6.284104814604077</v>
+        <v>4.242927217117257</v>
       </c>
       <c r="D214">
-        <v>8.319222525574146</v>
+        <v>6.007198153756552</v>
       </c>
       <c r="E214">
-        <v>10.12497469713438</v>
+        <v>8.636263463013121</v>
       </c>
       <c r="F214">
-        <v>10.51018931852195</v>
+        <v>3.582504514098207</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>2.534666976679864</v>
+        <v>4.369056083701729</v>
       </c>
       <c r="C215">
-        <v>6.253487436990556</v>
+        <v>4.206256313507888</v>
       </c>
       <c r="D215">
-        <v>8.280786368565575</v>
+        <v>5.979916194751019</v>
       </c>
       <c r="E215">
-        <v>10.11489427386841</v>
+        <v>8.602831417355709</v>
       </c>
       <c r="F215">
-        <v>10.48365491523555</v>
+        <v>3.558688072102769</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>2.508403317038508</v>
+        <v>4.333956354154687</v>
       </c>
       <c r="C216">
-        <v>6.22295840680299</v>
+        <v>4.169788485890396</v>
       </c>
       <c r="D216">
-        <v>8.242410166943317</v>
+        <v>5.952719930487496</v>
       </c>
       <c r="E216">
-        <v>10.10481522635359</v>
+        <v>8.569443071047301</v>
       </c>
       <c r="F216">
-        <v>10.45714819040843</v>
+        <v>3.534989366722673</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>2.482266301685234</v>
+        <v>4.298953287071638</v>
       </c>
       <c r="C217">
-        <v>6.192517758944402</v>
+        <v>4.133523872892122</v>
       </c>
       <c r="D217">
-        <v>8.204094175689676</v>
+        <v>5.925609307429013</v>
       </c>
       <c r="E217">
-        <v>10.09473755556643</v>
+        <v>8.536098525779607</v>
       </c>
       <c r="F217">
-        <v>10.4306691966563</v>
+        <v>3.511408193585384</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>2.456256605126178</v>
+        <v>4.264047646247699</v>
       </c>
       <c r="C218">
-        <v>6.16216552787999</v>
+        <v>4.097462603084634</v>
       </c>
       <c r="D218">
-        <v>8.165838651055942</v>
+        <v>5.898584271178927</v>
       </c>
       <c r="E218">
-        <v>10.08466126248606</v>
+        <v>8.502797883897861</v>
       </c>
       <c r="F218">
-        <v>10.40421798665</v>
+        <v>3.487944345987766</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>2.430374903608473</v>
+        <v>4.22924020216291</v>
       </c>
       <c r="C219">
-        <v>6.131901747620713</v>
+        <v>4.061604794800391</v>
       </c>
       <c r="D219">
-        <v>8.12764385058871</v>
+        <v>5.871644766422627</v>
       </c>
       <c r="E219">
-        <v>10.07458634809426</v>
+        <v>8.469541248404724</v>
       </c>
       <c r="F219">
-        <v>10.37779461311525</v>
+        <v>3.464597614921951</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2.404621874822142</v>
+        <v>4.194531730903509</v>
       </c>
       <c r="C220">
-        <v>6.101726451728243</v>
+        <v>4.025950556184529</v>
       </c>
       <c r="D220">
-        <v>8.089510033116568</v>
+        <v>5.844790737216841</v>
       </c>
       <c r="E220">
-        <v>10.06451281337545</v>
+        <v>8.436328722965468</v>
       </c>
       <c r="F220">
-        <v>10.35139912883127</v>
+        <v>3.441367789022838</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>2.378998197543571</v>
+        <v>4.159923014448251</v>
       </c>
       <c r="C221">
-        <v>6.071639673300549</v>
+        <v>3.990499985347182</v>
       </c>
       <c r="D221">
-        <v>8.051437458746831</v>
+        <v>5.818022126740821</v>
       </c>
       <c r="E221">
-        <v>10.05444065931674</v>
+        <v>8.403160411912859</v>
       </c>
       <c r="F221">
-        <v>10.32503158663083</v>
+        <v>3.418254654598852</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>2.353504551083963</v>
+        <v>4.12541483987283</v>
       </c>
       <c r="C222">
-        <v>6.041641444962897</v>
+        <v>3.955253169734754</v>
       </c>
       <c r="D222">
-        <v>8.013426388878319</v>
+        <v>5.791338877359148</v>
       </c>
       <c r="E222">
-        <v>10.0443698869079</v>
+        <v>8.370036420249319</v>
       </c>
       <c r="F222">
-        <v>10.29869203940016</v>
+        <v>3.395257995655673</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>2.328141613672387</v>
+        <v>4.091008000955291</v>
       </c>
       <c r="C223">
-        <v>6.011731798853472</v>
+        <v>3.920210186340403</v>
       </c>
       <c r="D223">
-        <v>7.975477086203868</v>
+        <v>5.764740930539126</v>
       </c>
       <c r="E223">
-        <v>10.03430049714139</v>
+        <v>8.336956853651367</v>
       </c>
       <c r="F223">
-        <v>10.27238054007786</v>
+        <v>3.37237759387716</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>2.302910066916414</v>
+        <v>4.056703297021489</v>
       </c>
       <c r="C224">
-        <v>5.981910766603355</v>
+        <v>3.885371101625898</v>
       </c>
       <c r="D224">
-        <v>7.937589814701829</v>
+        <v>5.738228227047042</v>
       </c>
       <c r="E224">
-        <v>10.02423249101236</v>
+        <v>8.30392181847346</v>
       </c>
       <c r="F224">
-        <v>10.24609714165446</v>
+        <v>3.349613228618438</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>2.277810591902577</v>
+        <v>4.022501533229964</v>
       </c>
       <c r="C225">
-        <v>5.9521783793706</v>
+        <v>3.850735971682216</v>
       </c>
       <c r="D225">
-        <v>7.899764839637673</v>
+        <v>5.711800706801829</v>
       </c>
       <c r="E225">
-        <v>10.01416586951864</v>
+        <v>8.270931421751806</v>
       </c>
       <c r="F225">
-        <v>10.21984189716855</v>
+        <v>3.326964676953324</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>2.252843870071841</v>
+        <v>3.988403519888707</v>
       </c>
       <c r="C226">
-        <v>5.922534667795258</v>
+        <v>3.816304841501489</v>
       </c>
       <c r="D226">
-        <v>7.862002427580909</v>
+        <v>5.685458308914315</v>
       </c>
       <c r="E226">
-        <v>10.0041006336608</v>
+        <v>8.237985771208281</v>
       </c>
       <c r="F226">
-        <v>10.19361485971348</v>
+        <v>3.304431713674274</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>2.228010579858145</v>
+        <v>3.95441007363679</v>
       </c>
       <c r="C227">
-        <v>5.892979662000697</v>
+        <v>3.782077745361005</v>
       </c>
       <c r="D227">
-        <v>7.824302846389986</v>
+        <v>5.659200971655421</v>
       </c>
       <c r="E227">
-        <v>9.994036784442113</v>
+        <v>8.205084975254129</v>
       </c>
       <c r="F227">
-        <v>10.16741608243145</v>
+        <v>3.28201411122173</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>2.203311401160357</v>
+        <v>3.920522016813127</v>
       </c>
       <c r="C228">
-        <v>5.863513391554142</v>
+        <v>3.748054706770998</v>
       </c>
       <c r="D228">
-        <v>7.78666636519564</v>
+        <v>5.633028632517521</v>
       </c>
       <c r="E228">
-        <v>9.983974322868585</v>
+        <v>8.172229142993853</v>
       </c>
       <c r="F228">
-        <v>10.14124561851438</v>
+        <v>3.259711639754062</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>2.178747014632865</v>
+        <v>3.886740177427015</v>
       </c>
       <c r="C229">
-        <v>5.834135885503067</v>
+        <v>3.714235738411074</v>
       </c>
       <c r="D229">
-        <v>7.749093254456921</v>
+        <v>5.606941228180266</v>
       </c>
       <c r="E229">
-        <v>9.973913249948961</v>
+        <v>8.139418384229362</v>
       </c>
       <c r="F229">
-        <v>10.11510352120131</v>
+        <v>3.237524067132044</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>2.154318099469395</v>
+        <v>3.853065388548078</v>
       </c>
       <c r="C230">
-        <v>5.804847172359374</v>
+        <v>3.680620841627076</v>
       </c>
       <c r="D230">
-        <v>7.711583785923167</v>
+        <v>5.580938694513778</v>
       </c>
       <c r="E230">
-        <v>9.963853566694727</v>
+        <v>8.106652809463521</v>
       </c>
       <c r="F230">
-        <v>10.08898984377806</v>
+        <v>3.21545115903563</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>2.130025333451055</v>
+        <v>3.819498489217096</v>
       </c>
       <c r="C231">
-        <v>5.775647280071991</v>
+        <v>3.64721000673827</v>
       </c>
       <c r="D231">
-        <v>7.674138232645903</v>
+        <v>5.55502096653237</v>
       </c>
       <c r="E231">
-        <v>9.953795274120129</v>
+        <v>8.073932529903717</v>
       </c>
       <c r="F231">
-        <v>10.06290463958211</v>
+        <v>3.193492678863242</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>2.105869389333416</v>
+        <v>3.786040324294245</v>
       </c>
       <c r="C232">
-        <v>5.746536236021542</v>
+        <v>3.614003213168673</v>
       </c>
       <c r="D232">
-        <v>7.636756868960252</v>
+        <v>5.529187978467551</v>
       </c>
       <c r="E232">
-        <v>9.943738373242178</v>
+        <v>8.041257657465534</v>
       </c>
       <c r="F232">
-        <v>10.03684796199644</v>
+        <v>3.171648387618319</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>2.081850943626828</v>
+        <v>3.752691744072784</v>
       </c>
       <c r="C233">
-        <v>5.717514066979102</v>
+        <v>3.581000428967333</v>
       </c>
       <c r="D233">
-        <v>7.599439970438244</v>
+        <v>5.503439663770538</v>
       </c>
       <c r="E233">
-        <v>9.933682865080666</v>
+        <v>8.008628304777922</v>
       </c>
       <c r="F233">
-        <v>10.01081986445054</v>
+        <v>3.149918044091417</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>2.057970669231264</v>
+        <v>3.719453603796551</v>
       </c>
       <c r="C234">
-        <v>5.688580799176902</v>
+        <v>3.548201610744557</v>
       </c>
       <c r="D234">
-        <v>7.562187814055891</v>
+        <v>5.477775955070794</v>
       </c>
       <c r="E234">
-        <v>9.92362875065816</v>
+        <v>7.976044585185821</v>
       </c>
       <c r="F234">
-        <v>9.984820400415298</v>
+        <v>3.128301404805584</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>2.034229237119574</v>
+        <v>3.686326764175177</v>
       </c>
       <c r="C235">
-        <v>5.659736458236272</v>
+        <v>3.515606703785429</v>
       </c>
       <c r="D235">
-        <v>7.525000678053853</v>
+        <v>5.452196784193593</v>
       </c>
       <c r="E235">
-        <v>9.913576031000023</v>
+        <v>7.943506612754043</v>
       </c>
       <c r="F235">
-        <v>9.958849623410659</v>
+        <v>3.106798224254701</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>2.010627313748351</v>
+        <v>3.653312091860153</v>
       </c>
       <c r="C236">
-        <v>5.630981069174891</v>
+        <v>3.483215642459226</v>
       </c>
       <c r="D236">
-        <v>7.487878841977617</v>
+        <v>5.426702082161097</v>
       </c>
       <c r="E236">
-        <v>9.903524707134421</v>
+        <v>7.911014502270716</v>
       </c>
       <c r="F236">
-        <v>9.932907587000763</v>
+        <v>3.085408254580669</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.987165563634412</v>
+        <v>3.620410458616672</v>
       </c>
       <c r="C237">
-        <v>5.602314656383149</v>
+        <v>3.451028349100111</v>
       </c>
       <c r="D237">
-        <v>7.450822586632302</v>
+        <v>5.401291779131763</v>
       </c>
       <c r="E237">
-        <v>9.893474780092346</v>
+        <v>7.878568369252669</v>
       </c>
       <c r="F237">
-        <v>9.906994344792972</v>
+        <v>3.06413124557716</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.963844649986751</v>
+        <v>3.587622741033957</v>
       </c>
       <c r="C238">
-        <v>5.573737243627284</v>
+        <v>3.419044734662348</v>
       </c>
       <c r="D238">
-        <v>7.413832194039934</v>
+        <v>5.375965804312795</v>
       </c>
       <c r="E238">
-        <v>9.883426250907602</v>
+        <v>7.84616832994793</v>
       </c>
       <c r="F238">
-        <v>9.881109950437004</v>
+        <v>3.042966944888262</v>
       </c>
     </row>
   </sheetData>
